--- a/Jogos_do_Dia/2023-07-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
   <si>
     <t>League</t>
   </si>
@@ -127,30 +127,30 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
+    <t>Japan J2 League</t>
+  </si>
+  <si>
     <t>South Korea K League 1</t>
   </si>
   <si>
-    <t>Japan J2 League</t>
+    <t>China Chinese Super League</t>
   </si>
   <si>
     <t>South Korea K League 2</t>
   </si>
   <si>
-    <t>China Chinese Super League</t>
-  </si>
-  <si>
     <t>Japan J1 League</t>
   </si>
   <si>
+    <t>Norway First Division</t>
+  </si>
+  <si>
+    <t>Uruguay Primera División</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Norway First Division</t>
-  </si>
-  <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -163,15 +163,15 @@
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
     <t>Uruguay Segunda División</t>
   </si>
   <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
     <t>Peru Primera División</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Brazil Serie C</t>
   </si>
   <si>
+    <t>USA MLS</t>
+  </si>
+  <si>
     <t>Venezuela Primera División</t>
   </si>
   <si>
-    <t>USA MLS</t>
-  </si>
-  <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
@@ -283,6 +283,15 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:20:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:05:00</t>
+  </si>
+  <si>
     <t>Phoenix Rising</t>
   </si>
   <si>
@@ -292,57 +301,57 @@
     <t>Atlas</t>
   </si>
   <si>
+    <t>Blaublitz Akita</t>
+  </si>
+  <si>
     <t>Gwangju</t>
   </si>
   <si>
-    <t>Blaublitz Akita</t>
+    <t>Shanghai Shenhua</t>
   </si>
   <si>
     <t>Anyang</t>
   </si>
   <si>
-    <t>Shanghai Shenhua</t>
-  </si>
-  <si>
     <t>Yokohama F. Marinos</t>
   </si>
   <si>
+    <t>Pohang Steelers</t>
+  </si>
+  <si>
     <t>Roasso Kumamoto</t>
   </si>
   <si>
-    <t>Pohang Steelers</t>
-  </si>
-  <si>
     <t>Gimpo Citizen</t>
   </si>
   <si>
     <t>Incheon United</t>
   </si>
   <si>
+    <t>Shijiazhuang Ever Bright</t>
+  </si>
+  <si>
     <t>Nantong Zhiyun</t>
   </si>
   <si>
-    <t>Shijiazhuang Ever Bright</t>
-  </si>
-  <si>
     <t>Dalian Yifang</t>
   </si>
   <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
+    <t>Bryne</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Boston River</t>
+  </si>
+  <si>
     <t>Halmstad</t>
   </si>
   <si>
-    <t>Bryne</t>
-  </si>
-  <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
-    <t>Kongsvinger</t>
-  </si>
-  <si>
-    <t>Boston River</t>
-  </si>
-  <si>
     <t>Norrköping</t>
   </si>
   <si>
@@ -355,18 +364,18 @@
     <t>Sarpsborg 08</t>
   </si>
   <si>
+    <t>Lillestrøm</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
     <t>Brann</t>
   </si>
   <si>
-    <t>Lillestrøm</t>
-  </si>
-  <si>
-    <t>Haugesund</t>
-  </si>
-  <si>
-    <t>Aalesund</t>
-  </si>
-  <si>
     <t>Fénix</t>
   </si>
   <si>
@@ -382,93 +391,93 @@
     <t>Coca-Cola</t>
   </si>
   <si>
+    <t>Independiente</t>
+  </si>
+  <si>
     <t>Brasil de Pelotas</t>
   </si>
   <si>
+    <t>Albion</t>
+  </si>
+  <si>
+    <t>Miramar Misiones</t>
+  </si>
+  <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>Sporting Cristal</t>
+  </si>
+  <si>
     <t>Toluca</t>
   </si>
   <si>
-    <t>Albion</t>
-  </si>
-  <si>
-    <t>Independiente</t>
-  </si>
-  <si>
-    <t>Cerro Largo</t>
-  </si>
-  <si>
-    <t>Sporting Cristal</t>
-  </si>
-  <si>
-    <t>Miramar Misiones</t>
-  </si>
-  <si>
     <t>Chacarita Juniors</t>
   </si>
   <si>
     <t>Gimnasia Mendoza</t>
   </si>
   <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Interporto</t>
+  </si>
+  <si>
     <t>Chaco For Ever</t>
   </si>
   <si>
-    <t>Interporto</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
-    <t>Globo</t>
+    <t>Amazonas</t>
+  </si>
+  <si>
+    <t>Brasiliense</t>
+  </si>
+  <si>
+    <t>Falcon</t>
+  </si>
+  <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
+    <t>Cascavel CR</t>
+  </si>
+  <si>
+    <t>Atlético PR</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro</t>
   </si>
   <si>
     <t>Caucaia</t>
   </si>
   <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
-    <t>Brasiliense</t>
-  </si>
-  <si>
-    <t>Falcon</t>
-  </si>
-  <si>
-    <t>Amazonas</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
-  </si>
-  <si>
-    <t>Atlético PR</t>
-  </si>
-  <si>
-    <t>Cascavel CR</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
     <t>Figueirense</t>
   </si>
   <si>
+    <t>Estudiantes Río Cuarto</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
     <t>Parnahyba</t>
   </si>
   <si>
+    <t>Atlanta United FC</t>
+  </si>
+  <si>
+    <t>Patronato</t>
+  </si>
+  <si>
     <t>Deportivo La Guaira</t>
   </si>
   <si>
-    <t>Atlanta United FC</t>
-  </si>
-  <si>
-    <t>Patronato</t>
-  </si>
-  <si>
-    <t>Colón</t>
-  </si>
-  <si>
-    <t>Estudiantes Río Cuarto</t>
-  </si>
-  <si>
     <t>Defensores de Belgrano</t>
   </si>
   <si>
@@ -478,33 +487,33 @@
     <t>Vancouver FC</t>
   </si>
   <si>
+    <t>Novo Hamburgo</t>
+  </si>
+  <si>
     <t>Sport Recife</t>
   </si>
   <si>
-    <t>Novo Hamburgo</t>
-  </si>
-  <si>
     <t>São Francisco</t>
   </si>
   <si>
     <t>Cuiabá</t>
   </si>
   <si>
+    <t>Rentistas</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
+    <t>Floresta</t>
+  </si>
+  <si>
     <t>Nacional</t>
   </si>
   <si>
-    <t>Rentistas</t>
-  </si>
-  <si>
-    <t>Floresta</t>
-  </si>
-  <si>
     <t>Volta Redonda</t>
   </si>
   <si>
-    <t>Instituto</t>
-  </si>
-  <si>
     <t>Club Atlético Mitre</t>
   </si>
   <si>
@@ -520,6 +529,15 @@
     <t>Ponte Preta</t>
   </si>
   <si>
+    <t>Hermanos Colmenares</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Santos Laguna</t>
+  </si>
+  <si>
     <t>Memphis 901</t>
   </si>
   <si>
@@ -529,57 +547,57 @@
     <t>Cruz Azul</t>
   </si>
   <si>
+    <t>Iwaki</t>
+  </si>
+  <si>
     <t>Ulsan</t>
   </si>
   <si>
-    <t>Iwaki</t>
+    <t>Tianjin Teda</t>
   </si>
   <si>
     <t>Gyeongnam</t>
   </si>
   <si>
-    <t>Tianjin Teda</t>
-  </si>
-  <si>
     <t>Shonan Bellmare</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
     <t>Tokyo Verdy</t>
   </si>
   <si>
-    <t>Suwon</t>
-  </si>
-  <si>
     <t>Asan Mugunghwa</t>
   </si>
   <si>
     <t>Gangwon</t>
   </si>
   <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
     <t>Meizhou Hakka</t>
   </si>
   <si>
-    <t>Hangzhou</t>
-  </si>
-  <si>
     <t>Qingdao Jonoon</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
+    <t>Danubio</t>
+  </si>
+  <si>
     <t>IFK Göteborg</t>
   </si>
   <si>
-    <t>Raufoss</t>
-  </si>
-  <si>
-    <t>Ranheim</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Danubio</t>
-  </si>
-  <si>
     <t>Häcken</t>
   </si>
   <si>
@@ -592,18 +610,18 @@
     <t>Sandefjord</t>
   </si>
   <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>Odd</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
     <t>HamKam</t>
   </si>
   <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>Odd</t>
-  </si>
-  <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
     <t>Racing</t>
   </si>
   <si>
@@ -619,93 +637,93 @@
     <t>Al Ahly</t>
   </si>
   <si>
+    <t>Huracán</t>
+  </si>
+  <si>
     <t>Caxias</t>
   </si>
   <si>
+    <t>Sud América</t>
+  </si>
+  <si>
+    <t>Rampla Juniors</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Unión Comercio</t>
+  </si>
+  <si>
     <t>Necaxa</t>
   </si>
   <si>
-    <t>Sud América</t>
-  </si>
-  <si>
-    <t>Huracán</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Unión Comercio</t>
-  </si>
-  <si>
-    <t>Rampla Juniors</t>
-  </si>
-  <si>
     <t>Deportivo Maipú</t>
   </si>
   <si>
     <t>Alvarado</t>
   </si>
   <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Pacajus</t>
+  </si>
+  <si>
+    <t>Ceilândia</t>
+  </si>
+  <si>
     <t>Aldosivi</t>
   </si>
   <si>
-    <t>Ceilândia</t>
-  </si>
-  <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Pacajus</t>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
+    <t>Real Ariquemes</t>
+  </si>
+  <si>
+    <t>Cruzeiro Arapiraca</t>
+  </si>
+  <si>
+    <t>Bahia de Feira</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
+    <t>América Mineiro</t>
   </si>
   <si>
     <t>Ferroviário</t>
   </si>
   <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>Real Ariquemes</t>
-  </si>
-  <si>
-    <t>Cruzeiro Arapiraca</t>
-  </si>
-  <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
-    <t>América Mineiro</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
     <t>Operário PR</t>
   </si>
   <si>
+    <t>Almagro</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
     <t>Maranhão</t>
   </si>
   <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
+    <t>Flandria</t>
+  </si>
+  <si>
     <t>Caracas</t>
   </si>
   <si>
-    <t>Philadelphia Union</t>
-  </si>
-  <si>
-    <t>Flandria</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Almagro</t>
-  </si>
-  <si>
     <t>Agropecuario</t>
   </si>
   <si>
@@ -715,33 +733,33 @@
     <t>York9 FC</t>
   </si>
   <si>
+    <t>Aimoré</t>
+  </si>
+  <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>Aimoré</t>
-  </si>
-  <si>
     <t>Águia de Marabá</t>
   </si>
   <si>
     <t>Santos</t>
   </si>
   <si>
+    <t>Oriental</t>
+  </si>
+  <si>
+    <t>Belgrano</t>
+  </si>
+  <si>
+    <t>Remo</t>
+  </si>
+  <si>
     <t>Plaza Colonia</t>
   </si>
   <si>
-    <t>Oriental</t>
-  </si>
-  <si>
-    <t>Remo</t>
-  </si>
-  <si>
     <t>CSA</t>
   </si>
   <si>
-    <t>Belgrano</t>
-  </si>
-  <si>
     <t>Independiente Rivadavia</t>
   </si>
   <si>
@@ -755,6 +773,15 @@
   </si>
   <si>
     <t>Novorizontino</t>
+  </si>
+  <si>
+    <t>Metropolitanos</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Querétaro</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI80"/>
+  <dimension ref="A1:AI83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G2">
         <v>2.1</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J2">
         <v>1.05</v>
@@ -1270,10 +1297,10 @@
         <v>3.3</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O2">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -1350,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G3">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H3">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J3">
         <v>1.04</v>
@@ -1377,10 +1404,10 @@
         <v>3.8</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O3">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="P3">
         <v>1.33</v>
@@ -1457,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="G4">
         <v>2.05</v>
@@ -1561,76 +1588,76 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G5">
-        <v>3.25</v>
+        <v>2.18</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="I5">
-        <v>2.04</v>
+        <v>3.4</v>
       </c>
       <c r="J5">
         <v>1.05</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>1.92</v>
+        <v>1.5</v>
       </c>
       <c r="P5">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="R5">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T5">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="U5">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V5">
+        <v>1.62</v>
+      </c>
+      <c r="W5">
         <v>1.2</v>
       </c>
-      <c r="W5">
-        <v>1.7</v>
-      </c>
       <c r="X5">
-        <v>2.33</v>
+        <v>0.91</v>
       </c>
       <c r="Y5">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="Z5">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AA5">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1645,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1668,76 +1695,76 @@
         <v>61</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G6">
-        <v>2.05</v>
+        <v>3.35</v>
       </c>
       <c r="H6">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="J6">
         <v>1.05</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M6">
+        <v>3.6</v>
+      </c>
+      <c r="N6">
+        <v>1.83</v>
+      </c>
+      <c r="O6">
+        <v>1.93</v>
+      </c>
+      <c r="P6">
+        <v>1.36</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="N6">
-        <v>2.05</v>
-      </c>
-      <c r="O6">
+      <c r="R6">
+        <v>1.67</v>
+      </c>
+      <c r="S6">
+        <v>2.1</v>
+      </c>
+      <c r="T6">
+        <v>1.75</v>
+      </c>
+      <c r="U6">
+        <v>1.32</v>
+      </c>
+      <c r="V6">
+        <v>1.2</v>
+      </c>
+      <c r="W6">
         <v>1.7</v>
       </c>
-      <c r="P6">
-        <v>1.42</v>
-      </c>
-      <c r="Q6">
-        <v>2.62</v>
-      </c>
-      <c r="R6">
-        <v>1.8</v>
-      </c>
-      <c r="S6">
-        <v>1.91</v>
-      </c>
-      <c r="T6">
-        <v>1.28</v>
-      </c>
-      <c r="U6">
-        <v>1.3</v>
-      </c>
-      <c r="V6">
-        <v>1.62</v>
-      </c>
-      <c r="W6">
-        <v>1.2</v>
-      </c>
       <c r="X6">
-        <v>0.91</v>
+        <v>2.33</v>
       </c>
       <c r="Y6">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="Z6">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AA6">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1752,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1775,76 +1802,76 @@
         <v>62</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G7">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
       <c r="H7">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="I7">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="J7">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="O7">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T7">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="Y7">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Z7">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="AA7">
-        <v>3.03</v>
+        <v>2.64</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1882,76 +1909,76 @@
         <v>62</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G8">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="N8">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="O8">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="P8">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q8">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>1.95</v>
+      </c>
+      <c r="T8">
+        <v>1.22</v>
+      </c>
+      <c r="U8">
+        <v>1.25</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>1.75</v>
+      </c>
+      <c r="X8">
         <v>2</v>
       </c>
-      <c r="S8">
-        <v>1.75</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>2.14</v>
-      </c>
-      <c r="X8">
-        <v>1.67</v>
-      </c>
       <c r="Y8">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Z8">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="AA8">
-        <v>2.64</v>
+        <v>3.03</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1992,19 +2019,19 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G9">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H9">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="I9">
-        <v>4.6</v>
+        <v>5.75</v>
       </c>
       <c r="J9">
         <v>1.02</v>
@@ -2019,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="N9">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O9">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="P9">
         <v>1.22</v>
@@ -2096,46 +2123,46 @@
         <v>63</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G10">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="H10">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="I10">
-        <v>2.25</v>
+        <v>5.1</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N10">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="O10">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="P10">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Q10">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R10">
         <v>1.8</v>
@@ -2144,28 +2171,28 @@
         <v>1.91</v>
       </c>
       <c r="T10">
-        <v>1.47</v>
+        <v>1.06</v>
       </c>
       <c r="U10">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="V10">
-        <v>1.35</v>
+        <v>2.55</v>
       </c>
       <c r="W10">
-        <v>1.17</v>
+        <v>2.22</v>
       </c>
       <c r="X10">
-        <v>2.18</v>
+        <v>0.63</v>
       </c>
       <c r="Y10">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="Z10">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="AA10">
-        <v>2.93</v>
+        <v>3.18</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2203,46 +2230,46 @@
         <v>63</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G11">
-        <v>1.51</v>
+        <v>2.85</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I11">
-        <v>5.4</v>
+        <v>2.38</v>
       </c>
       <c r="J11">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M11">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="O11">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="P11">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q11">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R11">
         <v>1.8</v>
@@ -2251,28 +2278,28 @@
         <v>1.91</v>
       </c>
       <c r="T11">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="U11">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V11">
-        <v>2.55</v>
+        <v>1.35</v>
       </c>
       <c r="W11">
-        <v>2.22</v>
+        <v>1.17</v>
       </c>
       <c r="X11">
-        <v>0.63</v>
+        <v>2.18</v>
       </c>
       <c r="Y11">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="Z11">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AA11">
-        <v>3.18</v>
+        <v>2.93</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2301,7 +2328,7 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>45109</v>
@@ -2313,10 +2340,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G12">
         <v>2.35</v>
@@ -2408,7 +2435,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2">
         <v>45109</v>
@@ -2420,19 +2447,19 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G13">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I13">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J13">
         <v>1.1</v>
@@ -2447,10 +2474,10 @@
         <v>2.65</v>
       </c>
       <c r="N13">
-        <v>2.15</v>
+        <v>2.33</v>
       </c>
       <c r="O13">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P13">
         <v>1.53</v>
@@ -2515,7 +2542,7 @@
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>45109</v>
@@ -2527,19 +2554,19 @@
         <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G14">
-        <v>2.23</v>
+        <v>2.83</v>
       </c>
       <c r="H14">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="I14">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2554,22 +2581,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="O14">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="P14">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2581,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>1.17</v>
+        <v>0.71</v>
       </c>
       <c r="X14">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="Y14">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
       <c r="Z14">
-        <v>1.17</v>
+        <v>1.56</v>
       </c>
       <c r="AA14">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2622,7 +2649,7 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2">
         <v>45109</v>
@@ -2634,19 +2661,19 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G15">
-        <v>2.83</v>
+        <v>2.38</v>
       </c>
       <c r="H15">
-        <v>3.24</v>
+        <v>3.05</v>
       </c>
       <c r="I15">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2661,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="N15">
+        <v>2.02</v>
+      </c>
+      <c r="O15">
+        <v>1.74</v>
+      </c>
+      <c r="P15">
+        <v>1.4</v>
+      </c>
+      <c r="Q15">
+        <v>2.75</v>
+      </c>
+      <c r="R15">
         <v>1.8</v>
       </c>
-      <c r="O15">
-        <v>1.96</v>
-      </c>
-      <c r="P15">
-        <v>1.36</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>1.67</v>
-      </c>
       <c r="S15">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2688,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="W15">
+        <v>1.17</v>
+      </c>
+      <c r="X15">
         <v>0.71</v>
       </c>
-      <c r="X15">
-        <v>1.29</v>
-      </c>
       <c r="Y15">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="Z15">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AA15">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -2729,7 +2756,7 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2">
         <v>45109</v>
@@ -2741,10 +2768,10 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G16">
         <v>2.4</v>
@@ -2845,105 +2872,105 @@
         <v>67</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G17">
+        <v>1.88</v>
+      </c>
+      <c r="H17">
+        <v>3.65</v>
+      </c>
+      <c r="I17">
+        <v>3.4</v>
+      </c>
+      <c r="J17">
+        <v>1.02</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="L17">
+        <v>1.15</v>
+      </c>
+      <c r="M17">
+        <v>4.7</v>
+      </c>
+      <c r="N17">
+        <v>1.62</v>
+      </c>
+      <c r="O17">
+        <v>2.25</v>
+      </c>
+      <c r="P17">
+        <v>1.29</v>
+      </c>
+      <c r="Q17">
+        <v>3.5</v>
+      </c>
+      <c r="R17">
+        <v>1.53</v>
+      </c>
+      <c r="S17">
         <v>2.38</v>
       </c>
-      <c r="H17">
-        <v>3.01</v>
-      </c>
-      <c r="I17">
-        <v>2.65</v>
-      </c>
-      <c r="J17">
-        <v>1.06</v>
-      </c>
-      <c r="K17">
-        <v>8.25</v>
-      </c>
-      <c r="L17">
-        <v>1.32</v>
-      </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
+      <c r="T17">
+        <v>1.22</v>
+      </c>
+      <c r="U17">
+        <v>1.25</v>
+      </c>
+      <c r="V17">
         <v>1.85</v>
       </c>
-      <c r="O17">
-        <v>1.8</v>
-      </c>
-      <c r="P17">
-        <v>1.44</v>
-      </c>
-      <c r="Q17">
-        <v>2.63</v>
-      </c>
-      <c r="R17">
-        <v>1.8</v>
-      </c>
-      <c r="S17">
-        <v>1.95</v>
-      </c>
-      <c r="T17">
-        <v>1.44</v>
-      </c>
-      <c r="U17">
-        <v>1.32</v>
-      </c>
-      <c r="V17">
-        <v>1.47</v>
-      </c>
       <c r="W17">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="X17">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y17">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="Z17">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="AA17">
-        <v>2.12</v>
+        <v>3.02</v>
       </c>
       <c r="AB17">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AI17">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2">
         <v>45109</v>
@@ -2955,19 +2982,19 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G18">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I18">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J18">
         <v>1.03</v>
@@ -2982,10 +3009,10 @@
         <v>3.75</v>
       </c>
       <c r="N18">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O18">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="P18">
         <v>1.4</v>
@@ -3050,7 +3077,7 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="2">
         <v>45109</v>
@@ -3062,19 +3089,19 @@
         <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="G19">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H19">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I19">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -3089,10 +3116,10 @@
         <v>3.75</v>
       </c>
       <c r="N19">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O19">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="P19">
         <v>1.36</v>
@@ -3166,76 +3193,76 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="G20">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="H20">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
-        <v>3.25</v>
+        <v>2.65</v>
       </c>
       <c r="J20">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="K20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L20">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="M20">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="O20">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="P20">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="Q20">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="R20">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="S20">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="T20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="U20">
         <v>1.25</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="W20">
-        <v>2.5</v>
+        <v>1.13</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Y20">
-        <v>1.83</v>
+        <v>2.31</v>
       </c>
       <c r="Z20">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AA20">
-        <v>3.02</v>
+        <v>3.45</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3256,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI20">
         <v>0</v>
@@ -3273,105 +3300,105 @@
         <v>67</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G21">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H21">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="J21">
         <v>1.06</v>
       </c>
       <c r="K21">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L21">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N21">
+        <v>2.2</v>
+      </c>
+      <c r="O21">
+        <v>1.68</v>
+      </c>
+      <c r="P21">
+        <v>1.44</v>
+      </c>
+      <c r="Q21">
+        <v>2.63</v>
+      </c>
+      <c r="R21">
+        <v>1.8</v>
+      </c>
+      <c r="S21">
         <v>1.95</v>
       </c>
-      <c r="O21">
-        <v>1.8</v>
-      </c>
-      <c r="P21">
-        <v>1.4</v>
-      </c>
-      <c r="Q21">
-        <v>2.7</v>
-      </c>
-      <c r="R21">
-        <v>1.77</v>
-      </c>
-      <c r="S21">
-        <v>1.93</v>
-      </c>
       <c r="T21">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U21">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V21">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="W21">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="X21">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="Y21">
-        <v>2.31</v>
+        <v>1.03</v>
       </c>
       <c r="Z21">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AA21">
-        <v>3.45</v>
+        <v>2.12</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2">
         <v>45109</v>
@@ -3383,19 +3410,19 @@
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G22">
-        <v>3.91</v>
+        <v>4.3</v>
       </c>
       <c r="H22">
-        <v>3.47</v>
+        <v>3.8</v>
       </c>
       <c r="I22">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="J22">
         <v>1.03</v>
@@ -3410,10 +3437,10 @@
         <v>4.4</v>
       </c>
       <c r="N22">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O22">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="P22">
         <v>1.3</v>
@@ -3490,43 +3517,43 @@
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G23">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="H23">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I23">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="N23">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="O23">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R23">
         <v>1.91</v>
@@ -3535,13 +3562,13 @@
         <v>1.91</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W23">
         <v>1.8</v>
@@ -3568,19 +3595,19 @@
         <v>2.4</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG23">
         <v>1.91</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3597,19 +3624,19 @@
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G24">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H24">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="I24">
-        <v>5.98</v>
+        <v>5.8</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3624,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="O24">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3704,19 +3731,19 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G25">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H25">
-        <v>3.89</v>
+        <v>4.6</v>
       </c>
       <c r="I25">
-        <v>4.77</v>
+        <v>5.8</v>
       </c>
       <c r="J25">
         <v>1.02</v>
@@ -3731,10 +3758,10 @@
         <v>5</v>
       </c>
       <c r="N25">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O25">
-        <v>2.26</v>
+        <v>2.45</v>
       </c>
       <c r="P25">
         <v>1.25</v>
@@ -3811,43 +3838,43 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G26">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="H26">
-        <v>4.36</v>
+        <v>3.9</v>
       </c>
       <c r="I26">
-        <v>6.25</v>
+        <v>4.9</v>
       </c>
       <c r="J26">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K26">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L26">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N26">
-        <v>1.49</v>
+        <v>1.85</v>
       </c>
       <c r="O26">
-        <v>2.39</v>
+        <v>1.96</v>
       </c>
       <c r="P26">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26">
         <v>1.8</v>
@@ -3856,28 +3883,28 @@
         <v>1.95</v>
       </c>
       <c r="T26">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="U26">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="V26">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="W26">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y26">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="Z26">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AA26">
-        <v>3.17</v>
+        <v>2.65</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3918,73 +3945,73 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G27">
-        <v>1.52</v>
+        <v>2.35</v>
       </c>
       <c r="H27">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="I27">
-        <v>4.34</v>
+        <v>2.75</v>
       </c>
       <c r="J27">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L27">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="O27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="P27">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="U27">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="V27">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="W27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X27">
-        <v>2.6</v>
+        <v>1.14</v>
       </c>
       <c r="Y27">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Z27">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AA27">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -4005,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -4025,19 +4052,19 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G28">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H28">
-        <v>2.79</v>
+        <v>3.2</v>
       </c>
       <c r="I28">
-        <v>2.65</v>
+        <v>2.12</v>
       </c>
       <c r="J28">
         <v>1.06</v>
@@ -4046,16 +4073,16 @@
         <v>8</v>
       </c>
       <c r="L28">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="O28">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="P28">
         <v>1.4</v>
@@ -4070,28 +4097,28 @@
         <v>2</v>
       </c>
       <c r="T28">
+        <v>1.72</v>
+      </c>
+      <c r="U28">
         <v>1.3</v>
       </c>
-      <c r="U28">
-        <v>1.33</v>
-      </c>
       <c r="V28">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="W28">
-        <v>1.6</v>
+        <v>0.67</v>
       </c>
       <c r="X28">
-        <v>1.14</v>
+        <v>0.6</v>
       </c>
       <c r="Y28">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="Z28">
-        <v>0.96</v>
+        <v>1.13</v>
       </c>
       <c r="AA28">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -4112,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -4132,73 +4159,73 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G29">
-        <v>2.9</v>
+        <v>1.17</v>
       </c>
       <c r="H29">
-        <v>2.81</v>
+        <v>6.25</v>
       </c>
       <c r="I29">
-        <v>2.13</v>
+        <v>11.5</v>
       </c>
       <c r="J29">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="L29">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="O29">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="P29">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="Q29">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
+        <v>1.95</v>
+      </c>
+      <c r="T29">
+        <v>1.02</v>
+      </c>
+      <c r="U29">
+        <v>1.08</v>
+      </c>
+      <c r="V29">
+        <v>3.8</v>
+      </c>
+      <c r="W29">
+        <v>2.33</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>2</v>
       </c>
-      <c r="T29">
-        <v>1.72</v>
-      </c>
-      <c r="U29">
-        <v>1.3</v>
-      </c>
-      <c r="V29">
-        <v>1.32</v>
-      </c>
-      <c r="W29">
-        <v>0.67</v>
-      </c>
-      <c r="X29">
-        <v>0.6</v>
-      </c>
-      <c r="Y29">
-        <v>1.13</v>
-      </c>
       <c r="Z29">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="AA29">
-        <v>2.26</v>
+        <v>3.17</v>
       </c>
       <c r="AB29">
         <v>0</v>
@@ -4219,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -4227,7 +4254,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2">
         <v>45109</v>
@@ -4239,19 +4266,19 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G30">
         <v>2.25</v>
       </c>
       <c r="H30">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J30">
         <v>1.08</v>
@@ -4266,10 +4293,10 @@
         <v>2.62</v>
       </c>
       <c r="N30">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O30">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="P30">
         <v>1.5</v>
@@ -4334,7 +4361,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2">
         <v>45109</v>
@@ -4346,19 +4373,19 @@
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G31">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="H31">
-        <v>5.58</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>13.16</v>
+        <v>13.5</v>
       </c>
       <c r="J31">
         <v>1.02</v>
@@ -4373,10 +4400,10 @@
         <v>4.33</v>
       </c>
       <c r="N31">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O31">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="P31">
         <v>1.29</v>
@@ -4453,19 +4480,19 @@
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G32">
         <v>1.23</v>
       </c>
       <c r="H32">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I32">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4480,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O32">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4560,19 +4587,19 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G33">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H33">
-        <v>3.47</v>
+        <v>3.95</v>
       </c>
       <c r="I33">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J33">
         <v>1.01</v>
@@ -4587,10 +4614,10 @@
         <v>5</v>
       </c>
       <c r="N33">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="O33">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="P33">
         <v>1.25</v>
@@ -4667,19 +4694,19 @@
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G34">
-        <v>4.87</v>
+        <v>4.75</v>
       </c>
       <c r="H34">
-        <v>3.54</v>
+        <v>3.5</v>
       </c>
       <c r="I34">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4694,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4771,105 +4798,105 @@
         <v>74</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W35">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="Y35">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="Z35">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AA35">
-        <v>3.31</v>
+        <v>2.81</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>45109</v>
@@ -4878,76 +4905,76 @@
         <v>74</v>
       </c>
       <c r="D36">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36">
+        <v>2.8</v>
+      </c>
+      <c r="H36">
+        <v>2.7</v>
+      </c>
+      <c r="I36">
+        <v>2.85</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1.53</v>
+      </c>
+      <c r="M36">
+        <v>2.35</v>
+      </c>
+      <c r="N36">
+        <v>2.71</v>
+      </c>
+      <c r="O36">
+        <v>1.35</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1.5</v>
+      </c>
+      <c r="X36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>123</v>
-      </c>
-      <c r="F36" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36">
-        <v>1.4</v>
-      </c>
-      <c r="H36">
-        <v>4.68</v>
-      </c>
-      <c r="I36">
-        <v>6.2</v>
-      </c>
-      <c r="J36">
-        <v>1.02</v>
-      </c>
-      <c r="K36">
-        <v>12</v>
-      </c>
-      <c r="L36">
-        <v>1.16</v>
-      </c>
-      <c r="M36">
-        <v>5</v>
-      </c>
-      <c r="N36">
-        <v>1.52</v>
-      </c>
-      <c r="O36">
-        <v>2.55</v>
-      </c>
-      <c r="P36">
-        <v>1.25</v>
-      </c>
-      <c r="Q36">
-        <v>3.75</v>
-      </c>
-      <c r="R36">
-        <v>1.7</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>1.09</v>
-      </c>
-      <c r="U36">
-        <v>1.12</v>
-      </c>
-      <c r="V36">
-        <v>3</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="AB36">
         <v>0</v>
@@ -4959,24 +4986,24 @@
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>45109</v>
@@ -4988,19 +5015,19 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5015,10 +5042,10 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -5092,105 +5119,105 @@
         <v>74</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G38">
-        <v>2.4</v>
+        <v>2.07</v>
       </c>
       <c r="H38">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="I38">
-        <v>3.27</v>
+        <v>3.45</v>
       </c>
       <c r="J38">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="P38">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>2.43</v>
       </c>
       <c r="X38">
-        <v>0.55</v>
+        <v>1.71</v>
       </c>
       <c r="Y38">
-        <v>1.48</v>
+        <v>1.95</v>
       </c>
       <c r="Z38">
         <v>1.33</v>
       </c>
       <c r="AA38">
-        <v>2.81</v>
+        <v>3.28</v>
       </c>
       <c r="AB38">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
         <v>45109</v>
@@ -5202,19 +5229,19 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I39">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J39">
         <v>1.07</v>
@@ -5229,10 +5256,10 @@
         <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="O39">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P39">
         <v>1.48</v>
@@ -5309,19 +5336,19 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G40">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H40">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="I40">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -5336,10 +5363,10 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O40">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P40">
         <v>1.3</v>
@@ -5404,7 +5431,7 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2">
         <v>45109</v>
@@ -5413,76 +5440,76 @@
         <v>74</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W41">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -5494,19 +5521,19 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI41">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5523,19 +5550,19 @@
         <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G42">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5544,16 +5571,16 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="M42">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="N42">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="O42">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="P42">
         <v>1.62</v>
@@ -5630,19 +5657,19 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G43">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="H43">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -5651,13 +5678,13 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M43">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N43">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="O43">
         <v>1.39</v>
@@ -5725,7 +5752,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2">
         <v>45109</v>
@@ -5734,76 +5761,76 @@
         <v>76</v>
       </c>
       <c r="D44">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G44">
         <v>2.3</v>
       </c>
       <c r="H44">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L44">
+        <v>1.42</v>
+      </c>
+      <c r="M44">
+        <v>2.7</v>
+      </c>
+      <c r="N44">
+        <v>2.3</v>
+      </c>
+      <c r="O44">
+        <v>1.55</v>
+      </c>
+      <c r="P44">
+        <v>1.51</v>
+      </c>
+      <c r="Q44">
+        <v>2.4</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.8</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>1.28</v>
+      </c>
+      <c r="V44">
+        <v>1.6</v>
+      </c>
+      <c r="W44">
         <v>1.5</v>
       </c>
-      <c r="M44">
-        <v>2.45</v>
-      </c>
-      <c r="N44">
-        <v>2.31</v>
-      </c>
-      <c r="O44">
-        <v>1.48</v>
-      </c>
-      <c r="P44">
-        <v>1.53</v>
-      </c>
-      <c r="Q44">
-        <v>2.38</v>
-      </c>
-      <c r="R44">
-        <v>2</v>
-      </c>
-      <c r="S44">
-        <v>1.73</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>1.44</v>
-      </c>
       <c r="X44">
-        <v>0.89</v>
+        <v>1.86</v>
       </c>
       <c r="Y44">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="Z44">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AA44">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5832,7 +5859,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>45109</v>
@@ -5844,19 +5871,19 @@
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5871,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -5898,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X45">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y45">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Z45">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="AA45">
-        <v>2.71</v>
+        <v>3.18</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5939,7 +5966,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
         <v>45109</v>
@@ -5948,76 +5975,76 @@
         <v>76</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G46">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
         <v>1.5</v>
       </c>
-      <c r="X46">
-        <v>1.86</v>
-      </c>
       <c r="Y46">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="Z46">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="AA46">
-        <v>3.06</v>
+        <v>2.71</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -6046,7 +6073,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2">
         <v>45109</v>
@@ -6055,22 +6082,22 @@
         <v>76</v>
       </c>
       <c r="D47">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -6079,28 +6106,28 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -6112,19 +6139,19 @@
         <v>0</v>
       </c>
       <c r="W47">
-        <v>0.8</v>
+        <v>1.44</v>
       </c>
       <c r="X47">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="Y47">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="Z47">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="AA47">
-        <v>3.18</v>
+        <v>2.97</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6153,7 +6180,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48" s="2">
         <v>45109</v>
@@ -6165,73 +6192,73 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T48">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U48">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="X48">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y48">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="Z48">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="AA48">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -6260,7 +6287,7 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2">
         <v>45109</v>
@@ -6272,19 +6299,19 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -6326,19 +6353,19 @@
         <v>0</v>
       </c>
       <c r="W49">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X49">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="Y49">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="Z49">
-        <v>1.26</v>
+        <v>0.87</v>
       </c>
       <c r="AA49">
-        <v>2.74</v>
+        <v>2.49</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6367,7 +6394,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>45109</v>
@@ -6379,19 +6406,19 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -6406,10 +6433,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -6433,19 +6460,19 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="X50">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y50">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="Z50">
-        <v>0.87</v>
+        <v>1.17</v>
       </c>
       <c r="AA50">
-        <v>2.49</v>
+        <v>3.11</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6474,7 +6501,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>45109</v>
@@ -6486,19 +6513,19 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6513,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -6540,19 +6567,19 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="X51">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Y51">
-        <v>1.94</v>
+        <v>1.48</v>
       </c>
       <c r="Z51">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AA51">
-        <v>3.11</v>
+        <v>2.74</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6581,7 +6608,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <v>45109</v>
@@ -6593,73 +6620,73 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G52">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="H52">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="I52">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="J52">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="O52">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="P52">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="S52">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="T52">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U52">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X52">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="Y52">
-        <v>1.66</v>
+        <v>2.13</v>
       </c>
       <c r="Z52">
-        <v>1.46</v>
+        <v>1.19</v>
       </c>
       <c r="AA52">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6700,97 +6727,97 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G53">
+        <v>2.95</v>
+      </c>
+      <c r="H53">
+        <v>3.4</v>
+      </c>
+      <c r="I53">
+        <v>2.38</v>
+      </c>
+      <c r="J53">
+        <v>1.06</v>
+      </c>
+      <c r="K53">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="L53">
+        <v>1.33</v>
+      </c>
+      <c r="M53">
+        <v>3.02</v>
+      </c>
+      <c r="N53">
+        <v>2.04</v>
+      </c>
+      <c r="O53">
+        <v>1.78</v>
+      </c>
+      <c r="P53">
+        <v>1.44</v>
+      </c>
+      <c r="Q53">
+        <v>2.63</v>
+      </c>
+      <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53">
+        <v>1.95</v>
+      </c>
+      <c r="T53">
+        <v>1.58</v>
+      </c>
+      <c r="U53">
+        <v>1.35</v>
+      </c>
+      <c r="V53">
+        <v>1.38</v>
+      </c>
+      <c r="W53">
+        <v>2.5</v>
+      </c>
+      <c r="X53">
+        <v>1.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.93</v>
+      </c>
+      <c r="Z53">
+        <v>1.41</v>
+      </c>
+      <c r="AA53">
+        <v>3.34</v>
+      </c>
+      <c r="AB53">
+        <v>2.02</v>
+      </c>
+      <c r="AC53">
+        <v>8</v>
+      </c>
+      <c r="AD53">
+        <v>2</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>1.3</v>
+      </c>
+      <c r="AG53">
         <v>1.52</v>
       </c>
-      <c r="H53">
-        <v>3.8</v>
-      </c>
-      <c r="I53">
-        <v>5.6</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>1.88</v>
-      </c>
-      <c r="O53">
-        <v>2</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>1.95</v>
-      </c>
-      <c r="S53">
-        <v>1.8</v>
-      </c>
-      <c r="T53">
-        <v>0</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>1.6</v>
-      </c>
-      <c r="X53">
-        <v>0.2</v>
-      </c>
-      <c r="Y53">
-        <v>1.78</v>
-      </c>
-      <c r="Z53">
-        <v>1.29</v>
-      </c>
-      <c r="AA53">
-        <v>3.07</v>
-      </c>
-      <c r="AB53">
-        <v>1.33</v>
-      </c>
-      <c r="AC53">
-        <v>10</v>
-      </c>
-      <c r="AD53">
-        <v>4.1</v>
-      </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>1.91</v>
-      </c>
       <c r="AH53">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6807,102 +6834,102 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G54">
-        <v>2.87</v>
+        <v>1.7</v>
       </c>
       <c r="H54">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="I54">
-        <v>2.28</v>
+        <v>5.2</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="O54">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S54">
+        <v>1.7</v>
+      </c>
+      <c r="T54">
+        <v>1.16</v>
+      </c>
+      <c r="U54">
+        <v>1.27</v>
+      </c>
+      <c r="V54">
+        <v>2.19</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="X54">
+        <v>0.83</v>
+      </c>
+      <c r="Y54">
         <v>1.95</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
-      <c r="U54">
-        <v>0</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>2.5</v>
-      </c>
-      <c r="X54">
-        <v>1.5</v>
-      </c>
-      <c r="Y54">
-        <v>1.93</v>
-      </c>
       <c r="Z54">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AA54">
-        <v>3.34</v>
+        <v>3.23</v>
       </c>
       <c r="AB54">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="AC54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD54">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AG54">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="55" spans="1:35">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2">
         <v>45109</v>
@@ -6911,105 +6938,105 @@
         <v>77</v>
       </c>
       <c r="D55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U55">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="X55">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="Y55">
-        <v>2.13</v>
+        <v>1.78</v>
       </c>
       <c r="Z55">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AA55">
-        <v>3.32</v>
+        <v>3.07</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AE55">
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI55">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>45109</v>
@@ -7018,22 +7045,22 @@
         <v>77</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G56">
-        <v>1.71</v>
+        <v>6.2</v>
       </c>
       <c r="H56">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I56">
-        <v>4.3</v>
+        <v>1.55</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -7048,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="O56">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -7060,10 +7087,10 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T56">
         <v>0</v>
@@ -7075,28 +7102,28 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="X56">
-        <v>0.83</v>
+        <v>2.5</v>
       </c>
       <c r="Y56">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="Z56">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AA56">
-        <v>3.23</v>
+        <v>3.13</v>
       </c>
       <c r="AB56">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AE56">
         <v>0</v>
@@ -7105,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -7128,19 +7155,19 @@
         <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G57">
         <v>1.91</v>
       </c>
       <c r="H57">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I57">
-        <v>4.33</v>
+        <v>4.9</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -7149,16 +7176,16 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="M57">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="N57">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O57">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -7223,7 +7250,7 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2">
         <v>45109</v>
@@ -7232,22 +7259,22 @@
         <v>79</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -7256,28 +7283,28 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T58">
         <v>0</v>
@@ -7289,19 +7316,19 @@
         <v>0</v>
       </c>
       <c r="W58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X58">
         <v>0.6</v>
       </c>
       <c r="Y58">
-        <v>1.28</v>
+        <v>1.76</v>
       </c>
       <c r="Z58">
-        <v>2.22</v>
+        <v>1.14</v>
       </c>
       <c r="AA58">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7330,7 +7357,7 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B59" s="2">
         <v>45109</v>
@@ -7339,105 +7366,105 @@
         <v>79</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="G59">
-        <v>2.87</v>
+        <v>2.46</v>
       </c>
       <c r="H59">
-        <v>2.8</v>
+        <v>3.14</v>
       </c>
       <c r="I59">
-        <v>2.4</v>
+        <v>2.95</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="L59">
+        <v>1.35</v>
+      </c>
+      <c r="M59">
+        <v>2.88</v>
+      </c>
+      <c r="N59">
+        <v>2.15</v>
+      </c>
+      <c r="O59">
+        <v>1.67</v>
+      </c>
+      <c r="P59">
+        <v>1.44</v>
+      </c>
+      <c r="Q59">
+        <v>2.63</v>
+      </c>
+      <c r="R59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
+        <v>1.37</v>
+      </c>
+      <c r="U59">
+        <v>1.36</v>
+      </c>
+      <c r="V59">
+        <v>1.57</v>
+      </c>
+      <c r="W59">
+        <v>1.36</v>
+      </c>
+      <c r="X59">
+        <v>0.9</v>
+      </c>
+      <c r="Y59">
+        <v>1.55</v>
+      </c>
+      <c r="Z59">
+        <v>1.31</v>
+      </c>
+      <c r="AA59">
+        <v>2.86</v>
+      </c>
+      <c r="AB59">
+        <v>1.91</v>
+      </c>
+      <c r="AC59">
+        <v>8</v>
+      </c>
+      <c r="AD59">
+        <v>2.1</v>
+      </c>
+      <c r="AE59">
+        <v>1.26</v>
+      </c>
+      <c r="AF59">
         <v>1.5</v>
       </c>
-      <c r="M59">
-        <v>2.45</v>
-      </c>
-      <c r="N59">
-        <v>2.45</v>
-      </c>
-      <c r="O59">
-        <v>1.5</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>2</v>
-      </c>
-      <c r="X59">
-        <v>2</v>
-      </c>
-      <c r="Y59">
-        <v>1.51</v>
-      </c>
-      <c r="Z59">
-        <v>1.67</v>
-      </c>
-      <c r="AA59">
-        <v>3.18</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
       <c r="AG59">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B60" s="2">
         <v>45109</v>
@@ -7446,76 +7473,76 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G60">
-        <v>1.79</v>
+        <v>3.45</v>
       </c>
       <c r="H60">
-        <v>3.37</v>
+        <v>3.05</v>
       </c>
       <c r="I60">
-        <v>3.64</v>
+        <v>2.15</v>
       </c>
       <c r="J60">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="O60">
-        <v>2.06</v>
+        <v>1.57</v>
       </c>
       <c r="P60">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U60">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X60">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
       <c r="Y60">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="Z60">
-        <v>1.45</v>
+        <v>2.22</v>
       </c>
       <c r="AA60">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7544,7 +7571,7 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B61" s="2">
         <v>45109</v>
@@ -7553,76 +7580,76 @@
         <v>79</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G61">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="H61">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="I61">
-        <v>4</v>
+        <v>2.85</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L61">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="M61">
-        <v>2.35</v>
+        <v>4.3</v>
       </c>
       <c r="N61">
-        <v>2.74</v>
+        <v>1.64</v>
       </c>
       <c r="O61">
-        <v>1.34</v>
+        <v>2.17</v>
       </c>
       <c r="P61">
+        <v>1.37</v>
+      </c>
+      <c r="Q61">
+        <v>3.25</v>
+      </c>
+      <c r="R61">
+        <v>1.57</v>
+      </c>
+      <c r="S61">
+        <v>2.3</v>
+      </c>
+      <c r="T61">
+        <v>1.44</v>
+      </c>
+      <c r="U61">
+        <v>1.22</v>
+      </c>
+      <c r="V61">
         <v>1.62</v>
       </c>
-      <c r="Q61">
-        <v>2.2</v>
-      </c>
-      <c r="R61">
-        <v>2.5</v>
-      </c>
-      <c r="S61">
-        <v>1.5</v>
-      </c>
-      <c r="T61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
       <c r="W61">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="X61">
-        <v>0.5</v>
+        <v>1.22</v>
       </c>
       <c r="Y61">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Z61">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="AA61">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7651,7 +7678,7 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2">
         <v>45109</v>
@@ -7660,105 +7687,105 @@
         <v>79</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F62" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G62">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="H62">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="I62">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="J62">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="K62">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1.35</v>
+        <v>1.53</v>
       </c>
       <c r="M62">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="N62">
-        <v>2.15</v>
+        <v>2.43</v>
       </c>
       <c r="O62">
-        <v>1.67</v>
+        <v>1.52</v>
       </c>
       <c r="P62">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q62">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="T62">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="U62">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="V62">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X62">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Y62">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="Z62">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="AA62">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="AB62">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD62">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE62">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF62">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG62">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AH62">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI62">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B63" s="2">
         <v>45109</v>
@@ -7767,22 +7794,22 @@
         <v>79</v>
       </c>
       <c r="D63">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F63" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G63">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="H63">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="I63">
-        <v>3.6</v>
+        <v>2.93</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -7791,52 +7818,52 @@
         <v>0</v>
       </c>
       <c r="L63">
+        <v>1.5</v>
+      </c>
+      <c r="M63">
+        <v>2.45</v>
+      </c>
+      <c r="N63">
+        <v>2.38</v>
+      </c>
+      <c r="O63">
+        <v>1.52</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
+      <c r="X63">
+        <v>2</v>
+      </c>
+      <c r="Y63">
+        <v>1.51</v>
+      </c>
+      <c r="Z63">
         <v>1.67</v>
       </c>
-      <c r="M63">
-        <v>2.1</v>
-      </c>
-      <c r="N63">
-        <v>2.95</v>
-      </c>
-      <c r="O63">
-        <v>1.3</v>
-      </c>
-      <c r="P63">
-        <v>1.67</v>
-      </c>
-      <c r="Q63">
-        <v>2.1</v>
-      </c>
-      <c r="R63">
-        <v>2.5</v>
-      </c>
-      <c r="S63">
-        <v>1.5</v>
-      </c>
-      <c r="T63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>0</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>1.8</v>
-      </c>
-      <c r="X63">
-        <v>0.6</v>
-      </c>
-      <c r="Y63">
-        <v>1.76</v>
-      </c>
-      <c r="Z63">
-        <v>1.14</v>
-      </c>
       <c r="AA63">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7877,19 +7904,19 @@
         <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G64">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H64">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>2.75</v>
+        <v>2.36</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -7898,16 +7925,16 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M64">
         <v>2.35</v>
       </c>
       <c r="N64">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="O64">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P64">
         <v>1.62</v>
@@ -7984,19 +8011,19 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G65">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J65">
         <v>1.01</v>
@@ -8011,10 +8038,10 @@
         <v>3.95</v>
       </c>
       <c r="N65">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="O65">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P65">
         <v>1.3</v>
@@ -8091,19 +8118,19 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F66" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -8118,22 +8145,22 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T66">
         <v>0</v>
@@ -8186,7 +8213,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B67" s="2">
         <v>45109</v>
@@ -8195,76 +8222,76 @@
         <v>82</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G67">
-        <v>1.61</v>
+        <v>2.49</v>
       </c>
       <c r="H67">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="I67">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="J67">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M67">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="N67">
-        <v>2.06</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>1.8</v>
+        <v>1.35</v>
       </c>
       <c r="P67">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="X67">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y67">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Z67">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AA67">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -8293,7 +8320,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2">
         <v>45109</v>
@@ -8302,76 +8329,76 @@
         <v>82</v>
       </c>
       <c r="D68">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W68">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X68">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y68">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Z68">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AA68">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -8400,7 +8427,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B69" s="2">
         <v>45109</v>
@@ -8412,19 +8439,19 @@
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F69" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -8439,10 +8466,10 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -8519,19 +8546,19 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F70" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G70">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I70">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -8540,16 +8567,16 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M70">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
       <c r="N70">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O70">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -8614,7 +8641,7 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B71" s="2">
         <v>45109</v>
@@ -8623,76 +8650,76 @@
         <v>84</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G71">
-        <v>1.39</v>
+        <v>2.14</v>
       </c>
       <c r="H71">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I71">
-        <v>5.11</v>
+        <v>3.1</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>1.68</v>
+        <v>2.11</v>
       </c>
       <c r="O71">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="P71">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
         <v>2.14</v>
       </c>
-      <c r="S71">
-        <v>1.63</v>
-      </c>
-      <c r="T71">
-        <v>1.03</v>
-      </c>
-      <c r="U71">
-        <v>1.14</v>
-      </c>
-      <c r="V71">
-        <v>3.35</v>
-      </c>
-      <c r="W71">
-        <v>2.75</v>
-      </c>
       <c r="X71">
-        <v>0.63</v>
+        <v>1.71</v>
       </c>
       <c r="Y71">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Z71">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="AA71">
-        <v>1.25</v>
+        <v>3.03</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -8721,7 +8748,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2">
         <v>45109</v>
@@ -8730,100 +8757,100 @@
         <v>84</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3.67</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="W72">
-        <v>2.14</v>
+        <v>1.36</v>
       </c>
       <c r="X72">
-        <v>1.71</v>
+        <v>1.18</v>
       </c>
       <c r="Y72">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="Z72">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AA72">
-        <v>3.03</v>
+        <v>2.81</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="73" spans="1:35">
@@ -8840,19 +8867,19 @@
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G73">
+        <v>2.95</v>
+      </c>
+      <c r="H73">
         <v>2.8</v>
       </c>
-      <c r="H73">
-        <v>2.75</v>
-      </c>
       <c r="I73">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J73">
         <v>1.11</v>
@@ -8867,10 +8894,10 @@
         <v>2.34</v>
       </c>
       <c r="N73">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="O73">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="P73">
         <v>1.62</v>
@@ -8935,7 +8962,7 @@
     </row>
     <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2">
         <v>45109</v>
@@ -8944,76 +8971,76 @@
         <v>84</v>
       </c>
       <c r="D74">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F74" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G74">
-        <v>1.9</v>
+        <v>1.34</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="I74">
-        <v>4.33</v>
+        <v>8</v>
       </c>
       <c r="J74">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>6.35</v>
+        <v>10.5</v>
       </c>
       <c r="L74">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="M74">
-        <v>2.33</v>
+        <v>3.82</v>
       </c>
       <c r="N74">
-        <v>2.59</v>
+        <v>1.72</v>
       </c>
       <c r="O74">
-        <v>1.38</v>
+        <v>2.06</v>
       </c>
       <c r="P74">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="Q74">
-        <v>2.2</v>
+        <v>3.31</v>
       </c>
       <c r="R74">
-        <v>2.35</v>
+        <v>2.14</v>
       </c>
       <c r="S74">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="T74">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="U74">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="V74">
-        <v>1.75</v>
+        <v>3.35</v>
       </c>
       <c r="W74">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="X74">
-        <v>1.25</v>
+        <v>0.63</v>
       </c>
       <c r="Y74">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Z74">
         <v>1.25</v>
       </c>
       <c r="AA74">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9042,7 +9069,7 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B75" s="2">
         <v>45109</v>
@@ -9051,100 +9078,100 @@
         <v>84</v>
       </c>
       <c r="D75">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G75">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="H75">
-        <v>2.91</v>
+        <v>2.95</v>
       </c>
       <c r="I75">
-        <v>3.67</v>
+        <v>4.5</v>
       </c>
       <c r="J75">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K75">
-        <v>7</v>
+        <v>6.35</v>
       </c>
       <c r="L75">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="M75">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="N75">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="O75">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P75">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q75">
         <v>2.2</v>
       </c>
       <c r="R75">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S75">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T75">
+        <v>1.15</v>
+      </c>
+      <c r="U75">
         <v>1.3</v>
       </c>
-      <c r="U75">
-        <v>1.38</v>
-      </c>
       <c r="V75">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="W75">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="X75">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="Y75">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Z75">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA75">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AB75">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD75">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AE75">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF75">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG75">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH75">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI75">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:35">
@@ -9161,19 +9188,19 @@
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G76">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H76">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I76">
-        <v>2.21</v>
+        <v>2.55</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -9188,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="O76">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="P76">
         <v>1.5</v>
@@ -9256,7 +9283,7 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="2">
         <v>45109</v>
@@ -9268,19 +9295,19 @@
         <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G77">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="H77">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I77">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -9295,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O77">
         <v>1.85</v>
@@ -9363,7 +9390,7 @@
     </row>
     <row r="78" spans="1:35">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B78" s="2">
         <v>45109</v>
@@ -9375,10 +9402,10 @@
         <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G78">
         <v>2.05</v>
@@ -9470,7 +9497,7 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B79" s="2">
         <v>45109</v>
@@ -9482,10 +9509,10 @@
         <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G79">
         <v>3.25</v>
@@ -9589,19 +9616,19 @@
         <v>15</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G80">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="H80">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="J80">
         <v>1.09</v>
@@ -9616,10 +9643,10 @@
         <v>2.48</v>
       </c>
       <c r="N80">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="O80">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P80">
         <v>1.55</v>
@@ -9680,6 +9707,327 @@
       </c>
       <c r="AI80">
         <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
+      <c r="A81" t="s">
+        <v>57</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45109</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>253</v>
+      </c>
+      <c r="G81">
+        <v>2.85</v>
+      </c>
+      <c r="H81">
+        <v>3.05</v>
+      </c>
+      <c r="I81">
+        <v>2.35</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2.01</v>
+      </c>
+      <c r="O81">
+        <v>1.75</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>1.29</v>
+      </c>
+      <c r="X81">
+        <v>1.29</v>
+      </c>
+      <c r="Y81">
+        <v>1.63</v>
+      </c>
+      <c r="Z81">
+        <v>1.29</v>
+      </c>
+      <c r="AA81">
+        <v>2.92</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35">
+      <c r="A82" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" t="s">
+        <v>254</v>
+      </c>
+      <c r="G82">
+        <v>1.67</v>
+      </c>
+      <c r="H82">
+        <v>3.3</v>
+      </c>
+      <c r="I82">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>1.1</v>
+      </c>
+      <c r="K82">
+        <v>5.75</v>
+      </c>
+      <c r="L82">
+        <v>1.5</v>
+      </c>
+      <c r="M82">
+        <v>2.45</v>
+      </c>
+      <c r="N82">
+        <v>2.6</v>
+      </c>
+      <c r="O82">
+        <v>1.48</v>
+      </c>
+      <c r="P82">
+        <v>1.57</v>
+      </c>
+      <c r="Q82">
+        <v>2.25</v>
+      </c>
+      <c r="R82">
+        <v>2.5</v>
+      </c>
+      <c r="S82">
+        <v>1.5</v>
+      </c>
+      <c r="T82">
+        <v>1.14</v>
+      </c>
+      <c r="U82">
+        <v>1.25</v>
+      </c>
+      <c r="V82">
+        <v>1.98</v>
+      </c>
+      <c r="W82">
+        <v>1.64</v>
+      </c>
+      <c r="X82">
+        <v>1.18</v>
+      </c>
+      <c r="Y82">
+        <v>1.62</v>
+      </c>
+      <c r="Z82">
+        <v>1.14</v>
+      </c>
+      <c r="AA82">
+        <v>2.76</v>
+      </c>
+      <c r="AB82">
+        <v>1.26</v>
+      </c>
+      <c r="AC82">
+        <v>10</v>
+      </c>
+      <c r="AD82">
+        <v>4.86</v>
+      </c>
+      <c r="AE82">
+        <v>1.25</v>
+      </c>
+      <c r="AF82">
+        <v>1.47</v>
+      </c>
+      <c r="AG82">
+        <v>1.83</v>
+      </c>
+      <c r="AH82">
+        <v>2.45</v>
+      </c>
+      <c r="AI82">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35">
+      <c r="A83" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45109</v>
+      </c>
+      <c r="C83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>173</v>
+      </c>
+      <c r="F83" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83">
+        <v>1.6</v>
+      </c>
+      <c r="H83">
+        <v>3.93</v>
+      </c>
+      <c r="I83">
+        <v>4.7</v>
+      </c>
+      <c r="J83">
+        <v>1.02</v>
+      </c>
+      <c r="K83">
+        <v>15</v>
+      </c>
+      <c r="L83">
+        <v>1.2</v>
+      </c>
+      <c r="M83">
+        <v>4.33</v>
+      </c>
+      <c r="N83">
+        <v>1.6</v>
+      </c>
+      <c r="O83">
+        <v>2.2</v>
+      </c>
+      <c r="P83">
+        <v>1.3</v>
+      </c>
+      <c r="Q83">
+        <v>3.4</v>
+      </c>
+      <c r="R83">
+        <v>1.7</v>
+      </c>
+      <c r="S83">
+        <v>2.05</v>
+      </c>
+      <c r="T83">
+        <v>1.17</v>
+      </c>
+      <c r="U83">
+        <v>1.23</v>
+      </c>
+      <c r="V83">
+        <v>2.2</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>1.18</v>
+      </c>
+      <c r="AF83">
+        <v>1.35</v>
+      </c>
+      <c r="AG83">
+        <v>1.63</v>
+      </c>
+      <c r="AH83">
+        <v>2.1</v>
+      </c>
+      <c r="AI83">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="254">
   <si>
     <t>League</t>
   </si>
@@ -127,12 +127,12 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
+    <t>South Korea K League 1</t>
+  </si>
+  <si>
     <t>Japan J2 League</t>
   </si>
   <si>
-    <t>South Korea K League 1</t>
-  </si>
-  <si>
     <t>China Chinese Super League</t>
   </si>
   <si>
@@ -145,12 +145,12 @@
     <t>Norway First Division</t>
   </si>
   <si>
+    <t>Sweden Allsvenskan</t>
+  </si>
+  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
-    <t>Sweden Allsvenskan</t>
-  </si>
-  <si>
     <t>Brazil Serie A</t>
   </si>
   <si>
@@ -163,18 +163,18 @@
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
+    <t>Uruguay Segunda División</t>
+  </si>
+  <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
-    <t>Uruguay Segunda División</t>
-  </si>
-  <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>Brazil Serie C</t>
   </si>
   <si>
+    <t>Venezuela Primera División</t>
+  </si>
+  <si>
     <t>USA MLS</t>
   </si>
   <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
@@ -301,78 +301,78 @@
     <t>Atlas</t>
   </si>
   <si>
+    <t>Gwangju</t>
+  </si>
+  <si>
     <t>Blaublitz Akita</t>
   </si>
   <si>
-    <t>Gwangju</t>
-  </si>
-  <si>
     <t>Shanghai Shenhua</t>
   </si>
   <si>
     <t>Anyang</t>
   </si>
   <si>
+    <t>Pohang Steelers</t>
+  </si>
+  <si>
+    <t>Roasso Kumamoto</t>
+  </si>
+  <si>
     <t>Yokohama F. Marinos</t>
   </si>
   <si>
-    <t>Pohang Steelers</t>
-  </si>
-  <si>
-    <t>Roasso Kumamoto</t>
-  </si>
-  <si>
     <t>Gimpo Citizen</t>
   </si>
   <si>
     <t>Incheon United</t>
   </si>
   <si>
+    <t>Dalian Yifang</t>
+  </si>
+  <si>
+    <t>Nantong Zhiyun</t>
+  </si>
+  <si>
     <t>Shijiazhuang Ever Bright</t>
   </si>
   <si>
-    <t>Nantong Zhiyun</t>
-  </si>
-  <si>
-    <t>Dalian Yifang</t>
-  </si>
-  <si>
     <t>Kongsvinger</t>
   </si>
   <si>
+    <t>Halmstad</t>
+  </si>
+  <si>
+    <t>Norrköping</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Boston River</t>
+  </si>
+  <si>
     <t>Bryne</t>
   </si>
   <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
-    <t>Boston River</t>
-  </si>
-  <si>
-    <t>Halmstad</t>
-  </si>
-  <si>
-    <t>Norrköping</t>
-  </si>
-  <si>
     <t>Corinthians</t>
   </si>
   <si>
     <t>Nõmme Kalju</t>
   </si>
   <si>
+    <t>Lillestrøm</t>
+  </si>
+  <si>
+    <t>Aalesund</t>
+  </si>
+  <si>
+    <t>Haugesund</t>
+  </si>
+  <si>
     <t>Sarpsborg 08</t>
   </si>
   <si>
-    <t>Lillestrøm</t>
-  </si>
-  <si>
-    <t>Haugesund</t>
-  </si>
-  <si>
-    <t>Aalesund</t>
-  </si>
-  <si>
     <t>Brann</t>
   </si>
   <si>
@@ -391,93 +391,93 @@
     <t>Coca-Cola</t>
   </si>
   <si>
+    <t>Cerro Largo</t>
+  </si>
+  <si>
+    <t>Toluca</t>
+  </si>
+  <si>
+    <t>Sporting Cristal</t>
+  </si>
+  <si>
+    <t>Miramar Misiones</t>
+  </si>
+  <si>
+    <t>Brasil de Pelotas</t>
+  </si>
+  <si>
     <t>Independiente</t>
   </si>
   <si>
-    <t>Brasil de Pelotas</t>
-  </si>
-  <si>
     <t>Albion</t>
   </si>
   <si>
-    <t>Miramar Misiones</t>
-  </si>
-  <si>
-    <t>Cerro Largo</t>
-  </si>
-  <si>
-    <t>Sporting Cristal</t>
-  </si>
-  <si>
-    <t>Toluca</t>
-  </si>
-  <si>
     <t>Chacarita Juniors</t>
   </si>
   <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>Interporto</t>
+  </si>
+  <si>
+    <t>Chaco For Ever</t>
+  </si>
+  <si>
     <t>Gimnasia Mendoza</t>
   </si>
   <si>
-    <t>Juventude</t>
-  </si>
-  <si>
-    <t>Globo</t>
-  </si>
-  <si>
-    <t>Interporto</t>
-  </si>
-  <si>
-    <t>Chaco For Ever</t>
+    <t>Atlético Mineiro</t>
   </si>
   <si>
     <t>Amazonas</t>
   </si>
   <si>
+    <t>Cascavel CR</t>
+  </si>
+  <si>
     <t>Brasiliense</t>
   </si>
   <si>
+    <t>Jacuipense</t>
+  </si>
+  <si>
+    <t>Caucaia</t>
+  </si>
+  <si>
+    <t>Atlético PR</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
     <t>Falcon</t>
   </si>
   <si>
-    <t>Jacuipense</t>
-  </si>
-  <si>
-    <t>Cascavel CR</t>
-  </si>
-  <si>
-    <t>Atlético PR</t>
-  </si>
-  <si>
-    <t>Botafogo</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
-  </si>
-  <si>
-    <t>Caucaia</t>
-  </si>
-  <si>
     <t>Figueirense</t>
   </si>
   <si>
+    <t>Deportivo La Guaira</t>
+  </si>
+  <si>
+    <t>Atlanta United FC</t>
+  </si>
+  <si>
+    <t>Colón</t>
+  </si>
+  <si>
     <t>Estudiantes Río Cuarto</t>
   </si>
   <si>
-    <t>Colón</t>
+    <t>Patronato</t>
   </si>
   <si>
     <t>Parnahyba</t>
   </si>
   <si>
-    <t>Atlanta United FC</t>
-  </si>
-  <si>
-    <t>Patronato</t>
-  </si>
-  <si>
-    <t>Deportivo La Guaira</t>
-  </si>
-  <si>
     <t>Defensores de Belgrano</t>
   </si>
   <si>
@@ -487,30 +487,27 @@
     <t>Vancouver FC</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>São Francisco</t>
+  </si>
+  <si>
     <t>Novo Hamburgo</t>
   </si>
   <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
-    <t>São Francisco</t>
-  </si>
-  <si>
     <t>Cuiabá</t>
   </si>
   <si>
     <t>Rentistas</t>
   </si>
   <si>
+    <t>Floresta</t>
+  </si>
+  <si>
     <t>Instituto</t>
   </si>
   <si>
-    <t>Floresta</t>
-  </si>
-  <si>
-    <t>Nacional</t>
-  </si>
-  <si>
     <t>Volta Redonda</t>
   </si>
   <si>
@@ -520,12 +517,12 @@
     <t>Monagas</t>
   </si>
   <si>
+    <t>Banfield</t>
+  </si>
+  <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>Banfield</t>
-  </si>
-  <si>
     <t>Ponte Preta</t>
   </si>
   <si>
@@ -547,78 +544,78 @@
     <t>Cruz Azul</t>
   </si>
   <si>
+    <t>Ulsan</t>
+  </si>
+  <si>
     <t>Iwaki</t>
   </si>
   <si>
-    <t>Ulsan</t>
-  </si>
-  <si>
     <t>Tianjin Teda</t>
   </si>
   <si>
     <t>Gyeongnam</t>
   </si>
   <si>
+    <t>Suwon</t>
+  </si>
+  <si>
+    <t>Tokyo Verdy</t>
+  </si>
+  <si>
     <t>Shonan Bellmare</t>
   </si>
   <si>
-    <t>Suwon</t>
-  </si>
-  <si>
-    <t>Tokyo Verdy</t>
-  </si>
-  <si>
     <t>Asan Mugunghwa</t>
   </si>
   <si>
     <t>Gangwon</t>
   </si>
   <si>
+    <t>Qingdao Jonoon</t>
+  </si>
+  <si>
+    <t>Meizhou Hakka</t>
+  </si>
+  <si>
     <t>Hangzhou</t>
   </si>
   <si>
-    <t>Meizhou Hakka</t>
-  </si>
-  <si>
-    <t>Qingdao Jonoon</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
+    <t>IFK Göteborg</t>
+  </si>
+  <si>
+    <t>Häcken</t>
+  </si>
+  <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
+    <t>Danubio</t>
+  </si>
+  <si>
     <t>Raufoss</t>
   </si>
   <si>
-    <t>Ranheim</t>
-  </si>
-  <si>
-    <t>Danubio</t>
-  </si>
-  <si>
-    <t>IFK Göteborg</t>
-  </si>
-  <si>
-    <t>Häcken</t>
-  </si>
-  <si>
     <t>Bragantino</t>
   </si>
   <si>
     <t>Tallinna Kalev</t>
   </si>
   <si>
+    <t>Tromsø</t>
+  </si>
+  <si>
+    <t>Rosenborg</t>
+  </si>
+  <si>
+    <t>Odd</t>
+  </si>
+  <si>
     <t>Sandefjord</t>
   </si>
   <si>
-    <t>Tromsø</t>
-  </si>
-  <si>
-    <t>Odd</t>
-  </si>
-  <si>
-    <t>Rosenborg</t>
-  </si>
-  <si>
     <t>HamKam</t>
   </si>
   <si>
@@ -637,93 +634,93 @@
     <t>Al Ahly</t>
   </si>
   <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Necaxa</t>
+  </si>
+  <si>
+    <t>Unión Comercio</t>
+  </si>
+  <si>
+    <t>Rampla Juniors</t>
+  </si>
+  <si>
+    <t>Caxias</t>
+  </si>
+  <si>
     <t>Huracán</t>
   </si>
   <si>
-    <t>Caxias</t>
-  </si>
-  <si>
     <t>Sud América</t>
   </si>
   <si>
-    <t>Rampla Juniors</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Unión Comercio</t>
-  </si>
-  <si>
-    <t>Necaxa</t>
-  </si>
-  <si>
     <t>Deportivo Maipú</t>
   </si>
   <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Pacajus</t>
+  </si>
+  <si>
+    <t>Ceilândia</t>
+  </si>
+  <si>
+    <t>Aldosivi</t>
+  </si>
+  <si>
     <t>Alvarado</t>
   </si>
   <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Pacajus</t>
-  </si>
-  <si>
-    <t>Ceilândia</t>
-  </si>
-  <si>
-    <t>Aldosivi</t>
+    <t>América Mineiro</t>
   </si>
   <si>
     <t>Pouso Alegre</t>
   </si>
   <si>
+    <t>CAP</t>
+  </si>
+  <si>
     <t>Real Ariquemes</t>
   </si>
   <si>
+    <t>Bahia de Feira</t>
+  </si>
+  <si>
+    <t>Ferroviário</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
     <t>Cruzeiro Arapiraca</t>
   </si>
   <si>
-    <t>Bahia de Feira</t>
-  </si>
-  <si>
-    <t>CAP</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
-    <t>América Mineiro</t>
-  </si>
-  <si>
-    <t>Ferroviário</t>
-  </si>
-  <si>
     <t>Operário PR</t>
   </si>
   <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
     <t>Almagro</t>
   </si>
   <si>
-    <t>Racing Club</t>
+    <t>Flandria</t>
   </si>
   <si>
     <t>Maranhão</t>
   </si>
   <si>
-    <t>Philadelphia Union</t>
-  </si>
-  <si>
-    <t>Flandria</t>
-  </si>
-  <si>
-    <t>Caracas</t>
-  </si>
-  <si>
     <t>Agropecuario</t>
   </si>
   <si>
@@ -733,30 +730,27 @@
     <t>York9 FC</t>
   </si>
   <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Águia de Marabá</t>
+  </si>
+  <si>
     <t>Aimoré</t>
   </si>
   <si>
-    <t>Ceará</t>
-  </si>
-  <si>
-    <t>Águia de Marabá</t>
-  </si>
-  <si>
     <t>Santos</t>
   </si>
   <si>
     <t>Oriental</t>
   </si>
   <si>
+    <t>Remo</t>
+  </si>
+  <si>
     <t>Belgrano</t>
   </si>
   <si>
-    <t>Remo</t>
-  </si>
-  <si>
-    <t>Plaza Colonia</t>
-  </si>
-  <si>
     <t>CSA</t>
   </si>
   <si>
@@ -766,10 +760,10 @@
     <t>Rayo Zuliano</t>
   </si>
   <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
     <t>Tigre</t>
-  </si>
-  <si>
-    <t>Argentinos Juniors</t>
   </si>
   <si>
     <t>Novorizontino</t>
@@ -1143,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI83"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,7 +1267,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G2">
         <v>2.1</v>
@@ -1324,10 +1318,10 @@
         <v>1.6</v>
       </c>
       <c r="W2">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="X2">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="Y2">
         <v>1.66</v>
@@ -1380,7 +1374,7 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G3">
         <v>1.55</v>
@@ -1431,10 +1425,10 @@
         <v>2.3</v>
       </c>
       <c r="W3">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
       <c r="X3">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y3">
         <v>1.57</v>
@@ -1487,7 +1481,7 @@
         <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G4">
         <v>2.05</v>
@@ -1538,7 +1532,7 @@
         <v>1.78</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1588,76 +1582,76 @@
         <v>61</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G5">
-        <v>2.18</v>
+        <v>3.15</v>
       </c>
       <c r="H5">
-        <v>2.95</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>3.4</v>
+        <v>2.09</v>
       </c>
       <c r="J5">
         <v>1.05</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M5">
+        <v>3.6</v>
+      </c>
+      <c r="N5">
+        <v>1.91</v>
+      </c>
+      <c r="O5">
+        <v>1.95</v>
+      </c>
+      <c r="P5">
+        <v>1.36</v>
+      </c>
+      <c r="Q5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2.5</v>
-      </c>
-      <c r="O5">
-        <v>1.5</v>
-      </c>
-      <c r="P5">
-        <v>1.42</v>
-      </c>
-      <c r="Q5">
-        <v>2.62</v>
-      </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S5">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T5">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="U5">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="V5">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="W5">
-        <v>1.2</v>
+        <v>1.55</v>
       </c>
       <c r="X5">
-        <v>0.91</v>
+        <v>2.4</v>
       </c>
       <c r="Y5">
-        <v>1.29</v>
+        <v>1.79</v>
       </c>
       <c r="Z5">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AA5">
-        <v>2.67</v>
+        <v>3.5</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1672,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1695,76 +1689,76 @@
         <v>61</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G6">
-        <v>3.35</v>
+        <v>2.19</v>
       </c>
       <c r="H6">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I6">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="J6">
         <v>1.05</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>1.93</v>
+        <v>1.5</v>
       </c>
       <c r="P6">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="R6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>1.28</v>
       </c>
       <c r="U6">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="V6">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="W6">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="X6">
-        <v>2.33</v>
+        <v>0.92</v>
       </c>
       <c r="Y6">
-        <v>1.79</v>
+        <v>1.29</v>
       </c>
       <c r="Z6">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AA6">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1779,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1808,16 +1802,16 @@
         <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="H7">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I7">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1826,16 +1820,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N7">
         <v>2.38</v>
       </c>
       <c r="O7">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="P7">
         <v>1.44</v>
@@ -1859,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="X7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="Y7">
         <v>1.52</v>
@@ -1915,16 +1909,16 @@
         <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="J8">
         <v>1.06</v>
@@ -1939,10 +1933,10 @@
         <v>3.3</v>
       </c>
       <c r="N8">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="O8">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="P8">
         <v>1.4</v>
@@ -1966,10 +1960,10 @@
         <v>1.8</v>
       </c>
       <c r="W8">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="Y8">
         <v>1.53</v>
@@ -2007,7 +2001,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>45109</v>
@@ -2016,85 +2010,85 @@
         <v>63</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="H9">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="I9">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N9">
-        <v>1.62</v>
+        <v>1.69</v>
       </c>
       <c r="O9">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="P9">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R9">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="T9">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="U9">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="V9">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W9">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="X9">
-        <v>0.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y9">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="Z9">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AA9">
-        <v>2.93</v>
+        <v>3.18</v>
       </c>
       <c r="AB9">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2103,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -2123,46 +2117,46 @@
         <v>63</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>2.78</v>
       </c>
       <c r="H10">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="I10">
-        <v>5.1</v>
+        <v>2.42</v>
       </c>
       <c r="J10">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M10">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="O10">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P10">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q10">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R10">
         <v>1.8</v>
@@ -2171,28 +2165,28 @@
         <v>1.91</v>
       </c>
       <c r="T10">
-        <v>1.06</v>
+        <v>1.47</v>
       </c>
       <c r="U10">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V10">
-        <v>2.55</v>
+        <v>1.35</v>
       </c>
       <c r="W10">
-        <v>2.22</v>
+        <v>1.08</v>
       </c>
       <c r="X10">
-        <v>0.63</v>
+        <v>2.25</v>
       </c>
       <c r="Y10">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="Z10">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AA10">
-        <v>3.18</v>
+        <v>2.93</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2221,7 +2215,7 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>45109</v>
@@ -2230,85 +2224,85 @@
         <v>63</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>101</v>
       </c>
       <c r="F11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G11">
-        <v>2.85</v>
+        <v>1.48</v>
       </c>
       <c r="H11">
-        <v>3.1</v>
+        <v>4.25</v>
       </c>
       <c r="I11">
+        <v>5.9</v>
+      </c>
+      <c r="J11">
+        <v>1.02</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>1.13</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>1.62</v>
+      </c>
+      <c r="O11">
+        <v>2.2</v>
+      </c>
+      <c r="P11">
+        <v>1.22</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>1.53</v>
+      </c>
+      <c r="S11">
         <v>2.38</v>
       </c>
-      <c r="J11">
-        <v>1.05</v>
-      </c>
-      <c r="K11">
-        <v>8</v>
-      </c>
-      <c r="L11">
-        <v>1.33</v>
-      </c>
-      <c r="M11">
-        <v>3.1</v>
-      </c>
-      <c r="N11">
-        <v>1.91</v>
-      </c>
-      <c r="O11">
-        <v>1.84</v>
-      </c>
-      <c r="P11">
-        <v>1.44</v>
-      </c>
-      <c r="Q11">
-        <v>2.63</v>
-      </c>
-      <c r="R11">
-        <v>1.8</v>
-      </c>
-      <c r="S11">
-        <v>1.91</v>
-      </c>
       <c r="T11">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="U11">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="V11">
-        <v>1.35</v>
+        <v>2.6</v>
       </c>
       <c r="W11">
-        <v>1.17</v>
+        <v>2.56</v>
       </c>
       <c r="X11">
-        <v>2.18</v>
+        <v>0.6</v>
       </c>
       <c r="Y11">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="Z11">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AA11">
         <v>2.93</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2317,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -2343,7 +2337,7 @@
         <v>102</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12">
         <v>2.35</v>
@@ -2394,10 +2388,10 @@
         <v>1.47</v>
       </c>
       <c r="W12">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="Y12">
         <v>1.36</v>
@@ -2435,7 +2429,7 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45109</v>
@@ -2450,16 +2444,16 @@
         <v>103</v>
       </c>
       <c r="F13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H13">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="J13">
         <v>1.1</v>
@@ -2474,10 +2468,10 @@
         <v>2.65</v>
       </c>
       <c r="N13">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="O13">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="P13">
         <v>1.53</v>
@@ -2501,10 +2495,10 @@
         <v>1.7</v>
       </c>
       <c r="W13">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="X13">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="Y13">
         <v>1.68</v>
@@ -2557,16 +2551,16 @@
         <v>104</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="H14">
-        <v>3.24</v>
+        <v>3.21</v>
       </c>
       <c r="I14">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2581,22 +2575,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="O14">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="P14">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R14">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S14">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -2608,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="W14">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.29</v>
+        <v>0.25</v>
       </c>
       <c r="Y14">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="Z14">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AA14">
-        <v>2.97</v>
+        <v>2.61</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2664,16 +2658,16 @@
         <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="H15">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2688,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="P15">
         <v>1.4</v>
@@ -2715,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="X15">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="Y15">
         <v>1.91</v>
@@ -2771,16 +2765,16 @@
         <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16">
-        <v>2.4</v>
+        <v>2.83</v>
       </c>
       <c r="H16">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="I16">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2795,22 +2789,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="O16">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2825,16 +2819,16 @@
         <v>1</v>
       </c>
       <c r="X16">
-        <v>0.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y16">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="Z16">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AA16">
-        <v>2.61</v>
+        <v>2.97</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -2878,16 +2872,16 @@
         <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G17">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H17">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2929,10 +2923,10 @@
         <v>1.85</v>
       </c>
       <c r="W17">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="Y17">
         <v>1.83</v>
@@ -2970,7 +2964,7 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2">
         <v>45109</v>
@@ -2979,105 +2973,105 @@
         <v>67</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
         <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="H18">
         <v>3.3</v>
       </c>
       <c r="I18">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J18">
+        <v>1.06</v>
+      </c>
+      <c r="K18">
+        <v>8.25</v>
+      </c>
+      <c r="L18">
+        <v>1.32</v>
+      </c>
+      <c r="M18">
+        <v>3.1</v>
+      </c>
+      <c r="N18">
+        <v>2.08</v>
+      </c>
+      <c r="O18">
+        <v>1.8</v>
+      </c>
+      <c r="P18">
+        <v>1.44</v>
+      </c>
+      <c r="Q18">
+        <v>2.63</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
+        <v>1.44</v>
+      </c>
+      <c r="U18">
+        <v>1.32</v>
+      </c>
+      <c r="V18">
+        <v>1.47</v>
+      </c>
+      <c r="W18">
+        <v>1.57</v>
+      </c>
+      <c r="X18">
+        <v>0.43</v>
+      </c>
+      <c r="Y18">
         <v>1.03</v>
       </c>
-      <c r="K18">
-        <v>13</v>
-      </c>
-      <c r="L18">
-        <v>1.25</v>
-      </c>
-      <c r="M18">
-        <v>3.75</v>
-      </c>
-      <c r="N18">
-        <v>1.86</v>
-      </c>
-      <c r="O18">
-        <v>1.89</v>
-      </c>
-      <c r="P18">
-        <v>1.4</v>
-      </c>
-      <c r="Q18">
-        <v>2.75</v>
-      </c>
-      <c r="R18">
-        <v>1.73</v>
-      </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>1.33</v>
-      </c>
-      <c r="U18">
-        <v>1.3</v>
-      </c>
-      <c r="V18">
-        <v>1.55</v>
-      </c>
-      <c r="W18">
-        <v>1.29</v>
-      </c>
-      <c r="X18">
-        <v>0.57</v>
-      </c>
-      <c r="Y18">
-        <v>1.53</v>
-      </c>
       <c r="Z18">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="AA18">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>45109</v>
@@ -3086,22 +3080,22 @@
         <v>67</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
         <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G19">
-        <v>1.83</v>
+        <v>3.7</v>
       </c>
       <c r="H19">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="I19">
-        <v>3.85</v>
+        <v>1.77</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -3110,81 +3104,81 @@
         <v>13</v>
       </c>
       <c r="L19">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M19">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="N19">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="O19">
-        <v>1.94</v>
+        <v>2.4</v>
       </c>
       <c r="P19">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S19">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="T19">
+        <v>2.05</v>
+      </c>
+      <c r="U19">
+        <v>1.23</v>
+      </c>
+      <c r="V19">
+        <v>1.21</v>
+      </c>
+      <c r="W19">
+        <v>1.33</v>
+      </c>
+      <c r="X19">
+        <v>1.57</v>
+      </c>
+      <c r="Y19">
+        <v>1.18</v>
+      </c>
+      <c r="Z19">
+        <v>1.72</v>
+      </c>
+      <c r="AA19">
+        <v>2.9</v>
+      </c>
+      <c r="AB19">
+        <v>3.15</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>1.5</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
         <v>1.22</v>
       </c>
-      <c r="U19">
-        <v>1.27</v>
-      </c>
-      <c r="V19">
-        <v>1.8</v>
-      </c>
-      <c r="W19">
-        <v>2</v>
-      </c>
-      <c r="X19">
-        <v>1.14</v>
-      </c>
-      <c r="Y19">
-        <v>1.36</v>
-      </c>
-      <c r="Z19">
-        <v>1.3</v>
-      </c>
-      <c r="AA19">
-        <v>2.66</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2">
         <v>45109</v>
@@ -3193,76 +3187,76 @@
         <v>67</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="H20">
         <v>3.3</v>
       </c>
       <c r="I20">
-        <v>2.65</v>
+        <v>3.3</v>
       </c>
       <c r="J20">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L20">
+        <v>1.25</v>
+      </c>
+      <c r="M20">
+        <v>3.75</v>
+      </c>
+      <c r="N20">
+        <v>2.06</v>
+      </c>
+      <c r="O20">
+        <v>1.8</v>
+      </c>
+      <c r="P20">
+        <v>1.36</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>1.8</v>
+      </c>
+      <c r="S20">
+        <v>1.91</v>
+      </c>
+      <c r="T20">
+        <v>1.22</v>
+      </c>
+      <c r="U20">
+        <v>1.27</v>
+      </c>
+      <c r="V20">
+        <v>1.8</v>
+      </c>
+      <c r="W20">
+        <v>2.14</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1.36</v>
+      </c>
+      <c r="Z20">
         <v>1.3</v>
       </c>
-      <c r="M20">
-        <v>3.2</v>
-      </c>
-      <c r="N20">
-        <v>1.93</v>
-      </c>
-      <c r="O20">
-        <v>1.85</v>
-      </c>
-      <c r="P20">
-        <v>1.4</v>
-      </c>
-      <c r="Q20">
-        <v>2.7</v>
-      </c>
-      <c r="R20">
-        <v>1.77</v>
-      </c>
-      <c r="S20">
-        <v>1.93</v>
-      </c>
-      <c r="T20">
-        <v>1.4</v>
-      </c>
-      <c r="U20">
-        <v>1.25</v>
-      </c>
-      <c r="V20">
-        <v>1.42</v>
-      </c>
-      <c r="W20">
-        <v>1.13</v>
-      </c>
-      <c r="X20">
-        <v>0.7</v>
-      </c>
-      <c r="Y20">
-        <v>2.31</v>
-      </c>
-      <c r="Z20">
-        <v>1.14</v>
-      </c>
       <c r="AA20">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -3300,105 +3294,105 @@
         <v>67</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="H21">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I21">
-        <v>2.85</v>
+        <v>2.61</v>
       </c>
       <c r="J21">
         <v>1.06</v>
       </c>
       <c r="K21">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L21">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="O21">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="P21">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q21">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T21">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U21">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="V21">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W21">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="X21">
-        <v>0.33</v>
+        <v>0.64</v>
       </c>
       <c r="Y21">
-        <v>1.03</v>
+        <v>2.31</v>
       </c>
       <c r="Z21">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AA21">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="AB21">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2">
         <v>45109</v>
@@ -3407,22 +3401,22 @@
         <v>67</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
         <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22">
-        <v>4.3</v>
+        <v>2.28</v>
       </c>
       <c r="H22">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="I22">
-        <v>1.8</v>
+        <v>2.68</v>
       </c>
       <c r="J22">
         <v>1.03</v>
@@ -3431,76 +3425,76 @@
         <v>13</v>
       </c>
       <c r="L22">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M22">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>1.64</v>
+        <v>1.81</v>
       </c>
       <c r="O22">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="P22">
+        <v>1.4</v>
+      </c>
+      <c r="Q22">
+        <v>2.75</v>
+      </c>
+      <c r="R22">
+        <v>1.73</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
         <v>1.3</v>
       </c>
-      <c r="Q22">
-        <v>3.4</v>
-      </c>
-      <c r="R22">
-        <v>1.62</v>
-      </c>
-      <c r="S22">
-        <v>2.2</v>
-      </c>
-      <c r="T22">
-        <v>2.05</v>
-      </c>
-      <c r="U22">
-        <v>1.23</v>
-      </c>
       <c r="V22">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="W22">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X22">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="Y22">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="Z22">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="AA22">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AB22">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3520,16 +3514,16 @@
         <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="H23">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I23">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="J23">
         <v>1.09</v>
@@ -3544,10 +3538,10 @@
         <v>2.92</v>
       </c>
       <c r="N23">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="O23">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P23">
         <v>1.5</v>
@@ -3556,10 +3550,10 @@
         <v>2.5</v>
       </c>
       <c r="R23">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
         <v>1.4</v>
@@ -3571,10 +3565,10 @@
         <v>1.55</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X23">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="Y23">
         <v>1.81</v>
@@ -3601,7 +3595,7 @@
         <v>1.34</v>
       </c>
       <c r="AG23">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AH23">
         <v>1.97</v>
@@ -3627,16 +3621,16 @@
         <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="H24">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="I24">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3651,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -3678,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="W24">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X24">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Y24">
         <v>1.51</v>
@@ -3734,70 +3728,70 @@
         <v>115</v>
       </c>
       <c r="F25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="H25">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="I25">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="J25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K25">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L25">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N25">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="O25">
-        <v>2.45</v>
+        <v>1.93</v>
       </c>
       <c r="P25">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="Q25">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="U25">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="V25">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="W25">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>0.33</v>
+        <v>2.67</v>
       </c>
       <c r="Y25">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Z25">
-        <v>1.18</v>
+        <v>0.98</v>
       </c>
       <c r="AA25">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3818,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3841,70 +3835,70 @@
         <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G26">
-        <v>1.57</v>
+        <v>2.86</v>
       </c>
       <c r="H26">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="I26">
-        <v>4.9</v>
+        <v>2.32</v>
       </c>
       <c r="J26">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L26">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M26">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N26">
         <v>1.85</v>
       </c>
       <c r="O26">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="P26">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S26">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>1.18</v>
+        <v>1.72</v>
       </c>
       <c r="U26">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="V26">
-        <v>2.25</v>
+        <v>1.32</v>
       </c>
       <c r="W26">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="Y26">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="Z26">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="AA26">
-        <v>2.65</v>
+        <v>2.26</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -3925,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -3948,16 +3942,16 @@
         <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G27">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="H27">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I27">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="J27">
         <v>1.06</v>
@@ -3972,10 +3966,10 @@
         <v>3</v>
       </c>
       <c r="N27">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O27">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P27">
         <v>1.4</v>
@@ -3999,10 +3993,10 @@
         <v>1.55</v>
       </c>
       <c r="W27">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="X27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>1.24</v>
@@ -4055,70 +4049,70 @@
         <v>118</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G28">
-        <v>3.2</v>
+        <v>1.51</v>
       </c>
       <c r="H28">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I28">
-        <v>2.12</v>
+        <v>5.2</v>
       </c>
       <c r="J28">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K28">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="M28">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>2.06</v>
+        <v>1.46</v>
       </c>
       <c r="O28">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="P28">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="Q28">
+        <v>3.75</v>
+      </c>
+      <c r="R28">
+        <v>1.62</v>
+      </c>
+      <c r="S28">
+        <v>2.2</v>
+      </c>
+      <c r="T28">
+        <v>1.11</v>
+      </c>
+      <c r="U28">
+        <v>1.15</v>
+      </c>
+      <c r="V28">
+        <v>2.8</v>
+      </c>
+      <c r="W28">
+        <v>1.67</v>
+      </c>
+      <c r="X28">
+        <v>0.29</v>
+      </c>
+      <c r="Y28">
+        <v>1.57</v>
+      </c>
+      <c r="Z28">
+        <v>1.18</v>
+      </c>
+      <c r="AA28">
         <v>2.75</v>
-      </c>
-      <c r="R28">
-        <v>1.75</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>1.72</v>
-      </c>
-      <c r="U28">
-        <v>1.3</v>
-      </c>
-      <c r="V28">
-        <v>1.32</v>
-      </c>
-      <c r="W28">
-        <v>0.67</v>
-      </c>
-      <c r="X28">
-        <v>0.6</v>
-      </c>
-      <c r="Y28">
-        <v>1.13</v>
-      </c>
-      <c r="Z28">
-        <v>1.13</v>
-      </c>
-      <c r="AA28">
-        <v>2.26</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -4162,16 +4156,16 @@
         <v>119</v>
       </c>
       <c r="F29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="H29">
-        <v>6.25</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="J29">
         <v>1.01</v>
@@ -4186,10 +4180,10 @@
         <v>6.5</v>
       </c>
       <c r="N29">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="O29">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
       <c r="P29">
         <v>1.22</v>
@@ -4213,7 +4207,7 @@
         <v>3.8</v>
       </c>
       <c r="W29">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -4254,7 +4248,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>45109</v>
@@ -4269,16 +4263,16 @@
         <v>120</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G30">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="H30">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I30">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="J30">
         <v>1.08</v>
@@ -4287,13 +4281,13 @@
         <v>6.5</v>
       </c>
       <c r="L30">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M30">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="N30">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="O30">
         <v>1.56</v>
@@ -4320,10 +4314,10 @@
         <v>1.58</v>
       </c>
       <c r="W30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="X30">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Y30">
         <v>1.09</v>
@@ -4361,7 +4355,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
         <v>45109</v>
@@ -4376,16 +4370,16 @@
         <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="I31">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>1.02</v>
@@ -4400,10 +4394,10 @@
         <v>4.33</v>
       </c>
       <c r="N31">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="O31">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="P31">
         <v>1.29</v>
@@ -4427,10 +4421,10 @@
         <v>4.75</v>
       </c>
       <c r="W31">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="X31">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="Y31">
         <v>1.91</v>
@@ -4483,16 +4477,16 @@
         <v>122</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="H32">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4534,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="X32">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>2.05</v>
@@ -4590,16 +4584,16 @@
         <v>123</v>
       </c>
       <c r="F33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G33">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="H33">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I33">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J33">
         <v>1.01</v>
@@ -4614,10 +4608,10 @@
         <v>5</v>
       </c>
       <c r="N33">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="O33">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="P33">
         <v>1.25</v>
@@ -4641,7 +4635,7 @@
         <v>2.1</v>
       </c>
       <c r="W33">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="X33">
         <v>1</v>
@@ -4697,16 +4691,16 @@
         <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G34">
-        <v>4.75</v>
+        <v>2.96</v>
       </c>
       <c r="H34">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I34">
-        <v>1.6</v>
+        <v>2.13</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4721,22 +4715,22 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O34">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -4748,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="X34">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="Y34">
         <v>1.41</v>
@@ -4789,7 +4783,7 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2">
         <v>45109</v>
@@ -4798,105 +4792,105 @@
         <v>74</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G35">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="H35">
-        <v>2.91</v>
+        <v>3.25</v>
       </c>
       <c r="I35">
-        <v>3.27</v>
+        <v>3.9</v>
       </c>
       <c r="J35">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K35">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="L35">
+        <v>1.38</v>
+      </c>
+      <c r="M35">
+        <v>2.8</v>
+      </c>
+      <c r="N35">
+        <v>2.15</v>
+      </c>
+      <c r="O35">
+        <v>1.53</v>
+      </c>
+      <c r="P35">
+        <v>1.48</v>
+      </c>
+      <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <v>1.92</v>
+      </c>
+      <c r="S35">
+        <v>1.79</v>
+      </c>
+      <c r="T35">
+        <v>1.28</v>
+      </c>
+      <c r="U35">
+        <v>1.3</v>
+      </c>
+      <c r="V35">
+        <v>1.7</v>
+      </c>
+      <c r="W35">
+        <v>1.67</v>
+      </c>
+      <c r="X35">
+        <v>0.78</v>
+      </c>
+      <c r="Y35">
         <v>1.52</v>
       </c>
-      <c r="M35">
-        <v>2.4</v>
-      </c>
-      <c r="N35">
-        <v>2.7</v>
-      </c>
-      <c r="O35">
-        <v>1.44</v>
-      </c>
-      <c r="P35">
-        <v>1.62</v>
-      </c>
-      <c r="Q35">
-        <v>2.2</v>
-      </c>
-      <c r="R35">
-        <v>2.2</v>
-      </c>
-      <c r="S35">
-        <v>1.62</v>
-      </c>
-      <c r="T35">
-        <v>1.25</v>
-      </c>
-      <c r="U35">
-        <v>1.4</v>
-      </c>
-      <c r="V35">
-        <v>1.55</v>
-      </c>
-      <c r="W35">
-        <v>1.3</v>
-      </c>
-      <c r="X35">
-        <v>0.55</v>
-      </c>
-      <c r="Y35">
-        <v>1.48</v>
-      </c>
       <c r="Z35">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AA35">
-        <v>2.81</v>
+        <v>2.74</v>
       </c>
       <c r="AB35">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>45109</v>
@@ -4905,105 +4899,105 @@
         <v>74</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>126</v>
       </c>
       <c r="F36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G36">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H36">
+        <v>4.68</v>
+      </c>
+      <c r="I36">
+        <v>6.2</v>
+      </c>
+      <c r="J36">
+        <v>1.02</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>1.16</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>1.52</v>
+      </c>
+      <c r="O36">
+        <v>2.55</v>
+      </c>
+      <c r="P36">
+        <v>1.25</v>
+      </c>
+      <c r="Q36">
+        <v>3.75</v>
+      </c>
+      <c r="R36">
+        <v>1.7</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>1.09</v>
+      </c>
+      <c r="U36">
+        <v>1.12</v>
+      </c>
+      <c r="V36">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1.3</v>
+      </c>
+      <c r="AF36">
+        <v>1.57</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
         <v>2.7</v>
       </c>
-      <c r="I36">
-        <v>2.85</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>1.53</v>
-      </c>
-      <c r="M36">
-        <v>2.35</v>
-      </c>
-      <c r="N36">
-        <v>2.71</v>
-      </c>
-      <c r="O36">
-        <v>1.35</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>1.5</v>
-      </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <v>1.78</v>
-      </c>
-      <c r="Z36">
-        <v>1.53</v>
-      </c>
-      <c r="AA36">
-        <v>3.31</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
       <c r="AI36">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="2">
         <v>45109</v>
@@ -5012,22 +5006,22 @@
         <v>74</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>127</v>
       </c>
       <c r="F37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G37">
-        <v>1.67</v>
+        <v>1.31</v>
       </c>
       <c r="H37">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="I37">
-        <v>4.9</v>
+        <v>7.9</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5042,46 +5036,46 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2.11</v>
+        <v>1.64</v>
       </c>
       <c r="O37">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="W37">
-        <v>1.57</v>
+        <v>2.33</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0.44</v>
       </c>
       <c r="Y37">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="Z37">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AA37">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -5110,7 +5104,7 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="2">
         <v>45109</v>
@@ -5125,16 +5119,16 @@
         <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G38">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="H38">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I38">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5149,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O38">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -5217,7 +5211,7 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B39" s="2">
         <v>45109</v>
@@ -5226,76 +5220,76 @@
         <v>74</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G39">
-        <v>2.1</v>
+        <v>2.72</v>
       </c>
       <c r="H39">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="I39">
-        <v>3.3</v>
+        <v>2.77</v>
       </c>
       <c r="J39">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.35</v>
       </c>
       <c r="N39">
-        <v>2.43</v>
+        <v>2.71</v>
       </c>
       <c r="O39">
+        <v>1.35</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1.5</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1.78</v>
+      </c>
+      <c r="Z39">
         <v>1.53</v>
       </c>
-      <c r="P39">
-        <v>1.48</v>
-      </c>
-      <c r="Q39">
-        <v>2.5</v>
-      </c>
-      <c r="R39">
-        <v>1.92</v>
-      </c>
-      <c r="S39">
-        <v>1.79</v>
-      </c>
-      <c r="T39">
-        <v>1.28</v>
-      </c>
-      <c r="U39">
-        <v>1.3</v>
-      </c>
-      <c r="V39">
-        <v>1.7</v>
-      </c>
-      <c r="W39">
-        <v>1.67</v>
-      </c>
-      <c r="X39">
-        <v>0.78</v>
-      </c>
-      <c r="Y39">
-        <v>1.52</v>
-      </c>
-      <c r="Z39">
-        <v>1.22</v>
-      </c>
       <c r="AA39">
-        <v>2.74</v>
+        <v>3.31</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5313,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH39">
         <v>0</v>
@@ -5333,105 +5327,105 @@
         <v>74</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
         <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G40">
-        <v>1.27</v>
+        <v>2.4</v>
       </c>
       <c r="H40">
-        <v>5.2</v>
+        <v>2.91</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>3.27</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O40">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="P40">
+        <v>1.62</v>
+      </c>
+      <c r="Q40">
+        <v>2.2</v>
+      </c>
+      <c r="R40">
+        <v>2.2</v>
+      </c>
+      <c r="S40">
+        <v>1.62</v>
+      </c>
+      <c r="T40">
+        <v>1.25</v>
+      </c>
+      <c r="U40">
+        <v>1.4</v>
+      </c>
+      <c r="V40">
+        <v>1.55</v>
+      </c>
+      <c r="W40">
         <v>1.3</v>
       </c>
-      <c r="Q40">
-        <v>3.2</v>
-      </c>
-      <c r="R40">
+      <c r="X40">
+        <v>0.55</v>
+      </c>
+      <c r="Y40">
+        <v>1.48</v>
+      </c>
+      <c r="Z40">
+        <v>1.33</v>
+      </c>
+      <c r="AA40">
+        <v>2.81</v>
+      </c>
+      <c r="AB40">
+        <v>1.95</v>
+      </c>
+      <c r="AC40">
+        <v>7.5</v>
+      </c>
+      <c r="AD40">
         <v>2.1</v>
       </c>
-      <c r="S40">
-        <v>1.7</v>
-      </c>
-      <c r="T40">
-        <v>1.06</v>
-      </c>
-      <c r="U40">
-        <v>1.12</v>
-      </c>
-      <c r="V40">
+      <c r="AE40">
+        <v>1.3</v>
+      </c>
+      <c r="AF40">
+        <v>1.57</v>
+      </c>
+      <c r="AG40">
+        <v>1.98</v>
+      </c>
+      <c r="AH40">
         <v>2.7</v>
       </c>
-      <c r="W40">
-        <v>2.33</v>
-      </c>
-      <c r="X40">
-        <v>0.44</v>
-      </c>
-      <c r="Y40">
-        <v>1.61</v>
-      </c>
-      <c r="Z40">
-        <v>1.15</v>
-      </c>
-      <c r="AA40">
-        <v>2.76</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
-      </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
       <c r="AI40">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2">
         <v>45109</v>
@@ -5440,77 +5434,77 @@
         <v>74</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="H41">
-        <v>4.68</v>
+        <v>3.5</v>
       </c>
       <c r="I41">
-        <v>6.2</v>
+        <v>4.75</v>
       </c>
       <c r="J41">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="O41">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="P41">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1.57</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>1.55</v>
+      </c>
+      <c r="Z41">
+        <v>1.45</v>
+      </c>
+      <c r="AA41">
         <v>3</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
       <c r="AB41">
         <v>0</v>
       </c>
@@ -5521,19 +5515,19 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:35">
@@ -5553,16 +5547,16 @@
         <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G42">
-        <v>2.37</v>
+        <v>2.29</v>
       </c>
       <c r="H42">
+        <v>2.92</v>
+      </c>
+      <c r="I42">
         <v>3</v>
-      </c>
-      <c r="I42">
-        <v>3.1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5577,10 +5571,10 @@
         <v>2.55</v>
       </c>
       <c r="N42">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="O42">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="P42">
         <v>1.62</v>
@@ -5645,7 +5639,7 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>45109</v>
@@ -5654,76 +5648,76 @@
         <v>76</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
         <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G43">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="I43">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L43">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="M43">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N43">
-        <v>2.77</v>
+        <v>2.22</v>
       </c>
       <c r="O43">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="P43">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R43">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="S43">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="X43">
-        <v>0.6</v>
+        <v>1.86</v>
       </c>
       <c r="Y43">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="Z43">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AA43">
-        <v>2.63</v>
+        <v>3.06</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5752,7 +5746,7 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>45109</v>
@@ -5761,76 +5755,76 @@
         <v>76</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
         <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G44">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I44">
-        <v>3.15</v>
+        <v>1.64</v>
       </c>
       <c r="J44">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="O44">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="P44">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="X44">
-        <v>1.86</v>
+        <v>0.8</v>
       </c>
       <c r="Y44">
+        <v>1.49</v>
+      </c>
+      <c r="Z44">
         <v>1.69</v>
       </c>
-      <c r="Z44">
-        <v>1.37</v>
-      </c>
       <c r="AA44">
-        <v>3.06</v>
+        <v>3.18</v>
       </c>
       <c r="AB44">
         <v>0</v>
@@ -5848,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44">
         <v>0</v>
@@ -5859,7 +5853,7 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
         <v>45109</v>
@@ -5874,16 +5868,16 @@
         <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5898,10 +5892,10 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -5925,19 +5919,19 @@
         <v>0</v>
       </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X45">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y45">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="Z45">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="AA45">
-        <v>3.18</v>
+        <v>2.71</v>
       </c>
       <c r="AB45">
         <v>0</v>
@@ -5966,7 +5960,7 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2">
         <v>45109</v>
@@ -5975,22 +5969,22 @@
         <v>76</v>
       </c>
       <c r="D46">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>136</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -5999,28 +5993,28 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="T46">
         <v>0</v>
@@ -6032,19 +6026,19 @@
         <v>0</v>
       </c>
       <c r="W46">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="X46">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="Y46">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="Z46">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AA46">
-        <v>2.71</v>
+        <v>2.97</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -6082,22 +6076,22 @@
         <v>76</v>
       </c>
       <c r="D47">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
         <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G47">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I47">
-        <v>2.55</v>
+        <v>4.1</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -6112,46 +6106,46 @@
         <v>2.45</v>
       </c>
       <c r="N47">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="O47">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P47">
+        <v>1.62</v>
+      </c>
+      <c r="Q47">
+        <v>2.2</v>
+      </c>
+      <c r="R47">
+        <v>2.38</v>
+      </c>
+      <c r="S47">
         <v>1.53</v>
       </c>
-      <c r="Q47">
-        <v>2.38</v>
-      </c>
-      <c r="R47">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
         <v>2</v>
       </c>
-      <c r="S47">
-        <v>1.73</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>1.44</v>
-      </c>
       <c r="X47">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="Y47">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="Z47">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="AA47">
-        <v>2.97</v>
+        <v>2.63</v>
       </c>
       <c r="AB47">
         <v>0</v>
@@ -6180,7 +6174,7 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>45109</v>
@@ -6189,105 +6183,105 @@
         <v>77</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
         <v>138</v>
       </c>
       <c r="F48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="H48">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="I48">
-        <v>3.5</v>
+        <v>4.55</v>
       </c>
       <c r="J48">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="L48">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="M48">
-        <v>2.34</v>
+        <v>3.7</v>
       </c>
       <c r="N48">
-        <v>2.52</v>
+        <v>1.88</v>
       </c>
       <c r="O48">
-        <v>1.46</v>
+        <v>1.76</v>
       </c>
       <c r="P48">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="Q48">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="R48">
+        <v>2.2</v>
+      </c>
+      <c r="S48">
+        <v>1.62</v>
+      </c>
+      <c r="T48">
+        <v>1.03</v>
+      </c>
+      <c r="U48">
+        <v>1.22</v>
+      </c>
+      <c r="V48">
+        <v>2.65</v>
+      </c>
+      <c r="W48">
+        <v>1.6</v>
+      </c>
+      <c r="X48">
+        <v>0.2</v>
+      </c>
+      <c r="Y48">
+        <v>1.78</v>
+      </c>
+      <c r="Z48">
+        <v>1.29</v>
+      </c>
+      <c r="AA48">
+        <v>3.07</v>
+      </c>
+      <c r="AB48">
+        <v>1.33</v>
+      </c>
+      <c r="AC48">
+        <v>10</v>
+      </c>
+      <c r="AD48">
+        <v>4.1</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>1.28</v>
+      </c>
+      <c r="AG48">
+        <v>1.91</v>
+      </c>
+      <c r="AH48">
+        <v>1.83</v>
+      </c>
+      <c r="AI48">
         <v>2.25</v>
-      </c>
-      <c r="S48">
-        <v>1.6</v>
-      </c>
-      <c r="T48">
-        <v>1.25</v>
-      </c>
-      <c r="U48">
-        <v>1.4</v>
-      </c>
-      <c r="V48">
-        <v>1.57</v>
-      </c>
-      <c r="W48">
-        <v>2</v>
-      </c>
-      <c r="X48">
-        <v>1.6</v>
-      </c>
-      <c r="Y48">
-        <v>1.66</v>
-      </c>
-      <c r="Z48">
-        <v>1.46</v>
-      </c>
-      <c r="AA48">
-        <v>3.12</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49" s="2">
         <v>45109</v>
@@ -6302,70 +6296,70 @@
         <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G49">
-        <v>1.17</v>
+        <v>2.23</v>
       </c>
       <c r="H49">
-        <v>6.6</v>
+        <v>2.68</v>
       </c>
       <c r="I49">
-        <v>14</v>
+        <v>3.45</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U49">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W49">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="X49">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y49">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Z49">
-        <v>0.87</v>
+        <v>1.46</v>
       </c>
       <c r="AA49">
-        <v>2.49</v>
+        <v>3.12</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6394,7 +6388,7 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
         <v>45109</v>
@@ -6409,16 +6403,16 @@
         <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="H50">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I50">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -6433,10 +6427,10 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="O50">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -6460,19 +6454,19 @@
         <v>0</v>
       </c>
       <c r="W50">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="X50">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y50">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="Z50">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AA50">
-        <v>3.11</v>
+        <v>3.32</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -6490,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH50">
         <v>0</v>
@@ -6501,7 +6495,7 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>45109</v>
@@ -6516,16 +6510,16 @@
         <v>141</v>
       </c>
       <c r="F51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G51">
-        <v>2.12</v>
+        <v>1.08</v>
       </c>
       <c r="H51">
-        <v>3.05</v>
+        <v>7.45</v>
       </c>
       <c r="I51">
-        <v>3.55</v>
+        <v>19.9</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -6540,10 +6534,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>2.28</v>
+        <v>1.48</v>
       </c>
       <c r="O51">
-        <v>1.58</v>
+        <v>2.31</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -6567,19 +6561,19 @@
         <v>0</v>
       </c>
       <c r="W51">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X51">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="Y51">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="Z51">
-        <v>1.26</v>
+        <v>0.87</v>
       </c>
       <c r="AA51">
-        <v>2.74</v>
+        <v>2.49</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -6608,7 +6602,7 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>45109</v>
@@ -6623,16 +6617,16 @@
         <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G52">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="H52">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="I52">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -6647,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="O52">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -6674,19 +6668,19 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="X52">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="Y52">
-        <v>2.13</v>
+        <v>1.48</v>
       </c>
       <c r="Z52">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AA52">
-        <v>3.32</v>
+        <v>2.74</v>
       </c>
       <c r="AB52">
         <v>0</v>
@@ -6715,7 +6709,7 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <v>45109</v>
@@ -6724,100 +6718,100 @@
         <v>77</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
         <v>143</v>
       </c>
       <c r="F53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G53">
-        <v>2.95</v>
+        <v>5.95</v>
       </c>
       <c r="H53">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I53">
-        <v>2.38</v>
+        <v>1.51</v>
       </c>
       <c r="J53">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="O53">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="P53">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="W53">
+        <v>1.2</v>
+      </c>
+      <c r="X53">
         <v>2.5</v>
       </c>
-      <c r="X53">
-        <v>1.5</v>
-      </c>
       <c r="Y53">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="Z53">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="AA53">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="AB53">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
         <v>2</v>
       </c>
-      <c r="AE53">
-        <v>0</v>
-      </c>
-      <c r="AF53">
-        <v>1.3</v>
-      </c>
-      <c r="AG53">
-        <v>1.52</v>
-      </c>
       <c r="AH53">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="AI53">
-        <v>2.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35">
@@ -6837,34 +6831,34 @@
         <v>144</v>
       </c>
       <c r="F54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G54">
-        <v>1.7</v>
+        <v>3.45</v>
       </c>
       <c r="H54">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="I54">
-        <v>5.2</v>
+        <v>2.13</v>
       </c>
       <c r="J54">
         <v>1.06</v>
       </c>
       <c r="K54">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L54">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="N54">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O54">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="P54">
         <v>1.44</v>
@@ -6873,58 +6867,58 @@
         <v>2.63</v>
       </c>
       <c r="R54">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>1.16</v>
+        <v>1.58</v>
       </c>
       <c r="U54">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="V54">
-        <v>2.19</v>
+        <v>1.38</v>
       </c>
       <c r="W54">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="X54">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="Y54">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="Z54">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AA54">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AB54">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="AC54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD54">
-        <v>3.35</v>
+        <v>2</v>
       </c>
       <c r="AE54">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AG54">
-        <v>1.91</v>
+        <v>1.52</v>
       </c>
       <c r="AH54">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AI54">
-        <v>2.45</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="55" spans="1:35">
@@ -6944,99 +6938,99 @@
         <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G55">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="H55">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="I55">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="J55">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K55">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L55">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M55">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1.83</v>
+        <v>2.11</v>
       </c>
       <c r="O55">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="P55">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q55">
+        <v>2.63</v>
+      </c>
+      <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>1.7</v>
+      </c>
+      <c r="T55">
+        <v>1.16</v>
+      </c>
+      <c r="U55">
+        <v>1.27</v>
+      </c>
+      <c r="V55">
+        <v>2.19</v>
+      </c>
+      <c r="W55">
         <v>3</v>
       </c>
-      <c r="R55">
-        <v>2</v>
-      </c>
-      <c r="S55">
-        <v>1.75</v>
-      </c>
-      <c r="T55">
-        <v>1.03</v>
-      </c>
-      <c r="U55">
-        <v>1.22</v>
-      </c>
-      <c r="V55">
-        <v>2.65</v>
-      </c>
-      <c r="W55">
-        <v>1.6</v>
-      </c>
       <c r="X55">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="Y55">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="Z55">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AA55">
-        <v>3.07</v>
+        <v>3.23</v>
       </c>
       <c r="AB55">
+        <v>1.44</v>
+      </c>
+      <c r="AC55">
+        <v>9</v>
+      </c>
+      <c r="AD55">
+        <v>3.35</v>
+      </c>
+      <c r="AE55">
+        <v>1.18</v>
+      </c>
+      <c r="AF55">
         <v>1.33</v>
-      </c>
-      <c r="AC55">
-        <v>10</v>
-      </c>
-      <c r="AD55">
-        <v>4.1</v>
-      </c>
-      <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>1.28</v>
       </c>
       <c r="AG55">
         <v>1.91</v>
       </c>
       <c r="AH55">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AI55">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="56" spans="1:35">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2">
         <v>45109</v>
@@ -7051,16 +7045,16 @@
         <v>146</v>
       </c>
       <c r="F56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G56">
-        <v>6.2</v>
+        <v>1.68</v>
       </c>
       <c r="H56">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I56">
-        <v>1.55</v>
+        <v>4.75</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -7075,10 +7069,10 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O56">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -7102,19 +7096,19 @@
         <v>0</v>
       </c>
       <c r="W56">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="X56">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="Y56">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="Z56">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="AA56">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -7132,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -7158,13 +7152,13 @@
         <v>147</v>
       </c>
       <c r="F57" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G57">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H57">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="I57">
         <v>4.9</v>
@@ -7176,16 +7170,16 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="M57">
-        <v>2.38</v>
+        <v>2.09</v>
       </c>
       <c r="N57">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="O57">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -7250,7 +7244,7 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <v>45109</v>
@@ -7259,22 +7253,22 @@
         <v>79</v>
       </c>
       <c r="D58">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
         <v>148</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G58">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="H58">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I58">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -7283,52 +7277,52 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="M58">
-        <v>2.17</v>
+        <v>2.45</v>
       </c>
       <c r="N58">
-        <v>3.04</v>
+        <v>2.38</v>
       </c>
       <c r="O58">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <v>2</v>
+      </c>
+      <c r="Y58">
+        <v>1.51</v>
+      </c>
+      <c r="Z58">
         <v>1.67</v>
       </c>
-      <c r="Q58">
-        <v>2.1</v>
-      </c>
-      <c r="R58">
-        <v>2.5</v>
-      </c>
-      <c r="S58">
-        <v>1.5</v>
-      </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>1.8</v>
-      </c>
-      <c r="X58">
-        <v>0.6</v>
-      </c>
-      <c r="Y58">
-        <v>1.76</v>
-      </c>
-      <c r="Z58">
-        <v>1.14</v>
-      </c>
       <c r="AA58">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -7357,7 +7351,7 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <v>45109</v>
@@ -7366,105 +7360,105 @@
         <v>79</v>
       </c>
       <c r="D59">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E59" t="s">
         <v>149</v>
       </c>
       <c r="F59" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G59">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="H59">
-        <v>3.14</v>
+        <v>3.35</v>
       </c>
       <c r="I59">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="J59">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K59">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="L59">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="M59">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>1.68</v>
       </c>
       <c r="O59">
-        <v>1.67</v>
+        <v>2.07</v>
       </c>
       <c r="P59">
+        <v>1.37</v>
+      </c>
+      <c r="Q59">
+        <v>3.25</v>
+      </c>
+      <c r="R59">
+        <v>1.57</v>
+      </c>
+      <c r="S59">
+        <v>2.3</v>
+      </c>
+      <c r="T59">
         <v>1.44</v>
       </c>
-      <c r="Q59">
-        <v>2.63</v>
-      </c>
-      <c r="R59">
-        <v>1.8</v>
-      </c>
-      <c r="S59">
-        <v>1.95</v>
-      </c>
-      <c r="T59">
-        <v>1.37</v>
-      </c>
       <c r="U59">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="V59">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W59">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="X59">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
       <c r="Y59">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="Z59">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AA59">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="AB59">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD59">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AE59">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG59">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AH59">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI59">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:35">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" s="2">
         <v>45109</v>
@@ -7473,105 +7467,105 @@
         <v>79</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
         <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G60">
-        <v>3.45</v>
+        <v>2.46</v>
       </c>
       <c r="H60">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="I60">
+        <v>2.95</v>
+      </c>
+      <c r="J60">
+        <v>1.04</v>
+      </c>
+      <c r="K60">
+        <v>7.4</v>
+      </c>
+      <c r="L60">
+        <v>1.35</v>
+      </c>
+      <c r="M60">
+        <v>2.88</v>
+      </c>
+      <c r="N60">
         <v>2.15</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>2.28</v>
-      </c>
       <c r="O60">
+        <v>1.67</v>
+      </c>
+      <c r="P60">
+        <v>1.44</v>
+      </c>
+      <c r="Q60">
+        <v>2.63</v>
+      </c>
+      <c r="R60">
+        <v>1.8</v>
+      </c>
+      <c r="S60">
+        <v>1.95</v>
+      </c>
+      <c r="T60">
+        <v>1.37</v>
+      </c>
+      <c r="U60">
+        <v>1.36</v>
+      </c>
+      <c r="V60">
         <v>1.57</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>0</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
       <c r="W60">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="X60">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="Y60">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="Z60">
-        <v>2.22</v>
+        <v>1.31</v>
       </c>
       <c r="AA60">
+        <v>2.86</v>
+      </c>
+      <c r="AB60">
+        <v>1.91</v>
+      </c>
+      <c r="AC60">
+        <v>8</v>
+      </c>
+      <c r="AD60">
+        <v>2.1</v>
+      </c>
+      <c r="AE60">
+        <v>1.26</v>
+      </c>
+      <c r="AF60">
+        <v>1.5</v>
+      </c>
+      <c r="AG60">
+        <v>1.88</v>
+      </c>
+      <c r="AH60">
+        <v>2.5</v>
+      </c>
+      <c r="AI60">
         <v>3.5</v>
-      </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>0</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2">
         <v>45109</v>
@@ -7580,76 +7574,76 @@
         <v>79</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
         <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G61">
+        <v>2.19</v>
+      </c>
+      <c r="H61">
+        <v>2.72</v>
+      </c>
+      <c r="I61">
+        <v>3.5</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1.63</v>
+      </c>
+      <c r="M61">
         <v>2.18</v>
       </c>
-      <c r="H61">
-        <v>3.45</v>
-      </c>
-      <c r="I61">
-        <v>2.85</v>
-      </c>
-      <c r="J61">
-        <v>1.01</v>
-      </c>
-      <c r="K61">
-        <v>12</v>
-      </c>
-      <c r="L61">
-        <v>1.17</v>
-      </c>
-      <c r="M61">
-        <v>4.3</v>
-      </c>
       <c r="N61">
-        <v>1.64</v>
+        <v>2.95</v>
       </c>
       <c r="O61">
-        <v>2.17</v>
+        <v>1.3</v>
       </c>
       <c r="P61">
-        <v>1.37</v>
+        <v>1.67</v>
       </c>
       <c r="Q61">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="R61">
-        <v>1.57</v>
+        <v>2.5</v>
       </c>
       <c r="S61">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="T61">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="X61">
-        <v>1.22</v>
+        <v>0.6</v>
       </c>
       <c r="Y61">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Z61">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="AA61">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="AB61">
         <v>0</v>
@@ -7693,16 +7687,16 @@
         <v>152</v>
       </c>
       <c r="F62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G62">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="H62">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I62">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -7711,16 +7705,16 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="M62">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="N62">
-        <v>2.43</v>
+        <v>2.74</v>
       </c>
       <c r="O62">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
       <c r="P62">
         <v>1.62</v>
@@ -7785,7 +7779,7 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
         <v>45109</v>
@@ -7794,22 +7788,22 @@
         <v>79</v>
       </c>
       <c r="D63">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
         <v>153</v>
       </c>
       <c r="F63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G63">
-        <v>2.43</v>
+        <v>3.4</v>
       </c>
       <c r="H63">
-        <v>2.73</v>
+        <v>2.98</v>
       </c>
       <c r="I63">
-        <v>2.93</v>
+        <v>2.09</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -7818,16 +7812,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>2.38</v>
+        <v>2.16</v>
       </c>
       <c r="O63">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -7854,16 +7848,16 @@
         <v>2</v>
       </c>
       <c r="X63">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="Y63">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="Z63">
-        <v>1.67</v>
+        <v>2.22</v>
       </c>
       <c r="AA63">
-        <v>3.18</v>
+        <v>3.5</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -7881,7 +7875,7 @@
         <v>0</v>
       </c>
       <c r="AG63">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AH63">
         <v>0</v>
@@ -7907,16 +7901,16 @@
         <v>154</v>
       </c>
       <c r="F64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I64">
-        <v>2.36</v>
+        <v>2.29</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -7925,16 +7919,16 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="M64">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="N64">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="O64">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P64">
         <v>1.62</v>
@@ -7999,7 +7993,7 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B65" s="2">
         <v>45109</v>
@@ -8014,16 +8008,16 @@
         <v>155</v>
       </c>
       <c r="F65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G65">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H65">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I65">
-        <v>6.5</v>
+        <v>5.55</v>
       </c>
       <c r="J65">
         <v>1.01</v>
@@ -8038,10 +8032,10 @@
         <v>3.95</v>
       </c>
       <c r="N65">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="O65">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P65">
         <v>1.3</v>
@@ -8121,16 +8115,16 @@
         <v>156</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G66">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H66">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -8145,10 +8139,10 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="O66">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="P66">
         <v>1.44</v>
@@ -8213,7 +8207,7 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2">
         <v>45109</v>
@@ -8222,76 +8216,76 @@
         <v>82</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
         <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G67">
-        <v>2.49</v>
+        <v>1.65</v>
       </c>
       <c r="H67">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="I67">
-        <v>3.15</v>
+        <v>4.85</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L67">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="M67">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>2.03</v>
       </c>
       <c r="O67">
-        <v>1.35</v>
+        <v>1.65</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V67">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W67">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="X67">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y67">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Z67">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AA67">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="AB67">
         <v>0</v>
@@ -8320,7 +8314,7 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" s="2">
         <v>45109</v>
@@ -8329,76 +8323,76 @@
         <v>82</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
         <v>158</v>
       </c>
       <c r="F68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G68">
-        <v>1.7</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="H68">
-        <v>3.35</v>
+        <v>4.75</v>
       </c>
       <c r="I68">
-        <v>4.8</v>
+        <v>1.28</v>
       </c>
       <c r="J68">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="O68">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="P68">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S68">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T68">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>1.2</v>
+      </c>
+      <c r="X68">
         <v>1.25</v>
       </c>
-      <c r="V68">
-        <v>2.1</v>
-      </c>
-      <c r="W68">
-        <v>3</v>
-      </c>
-      <c r="X68">
-        <v>2</v>
-      </c>
       <c r="Y68">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Z68">
-        <v>1.21</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
-        <v>2.85</v>
+        <v>2.78</v>
       </c>
       <c r="AB68">
         <v>0</v>
@@ -8427,7 +8421,7 @@
     </row>
     <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B69" s="2">
         <v>45109</v>
@@ -8442,16 +8436,16 @@
         <v>159</v>
       </c>
       <c r="F69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G69">
-        <v>9</v>
+        <v>2.43</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>2.68</v>
       </c>
       <c r="I69">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -8460,16 +8454,16 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="N69">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -8493,19 +8487,19 @@
         <v>0</v>
       </c>
       <c r="W69">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="X69">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y69">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AA69">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -8523,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="AG69">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH69">
         <v>0</v>
@@ -8549,55 +8543,55 @@
         <v>160</v>
       </c>
       <c r="F70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G70">
+        <v>2.28</v>
+      </c>
+      <c r="H70">
+        <v>3.05</v>
+      </c>
+      <c r="I70">
+        <v>3.05</v>
+      </c>
+      <c r="J70">
+        <v>1.11</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
+        <v>1.5</v>
+      </c>
+      <c r="M70">
+        <v>2.37</v>
+      </c>
+      <c r="N70">
+        <v>2.43</v>
+      </c>
+      <c r="O70">
+        <v>1.45</v>
+      </c>
+      <c r="P70">
+        <v>1.57</v>
+      </c>
+      <c r="Q70">
         <v>2.25</v>
       </c>
-      <c r="H70">
-        <v>3.15</v>
-      </c>
-      <c r="I70">
-        <v>3.45</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>1.53</v>
-      </c>
-      <c r="M70">
-        <v>2.33</v>
-      </c>
-      <c r="N70">
-        <v>2.5</v>
-      </c>
-      <c r="O70">
-        <v>1.53</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
       <c r="R70">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S70">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W70">
         <v>0.4</v>
@@ -8624,24 +8618,24 @@
         <v>2.48</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG70">
         <v>2.1</v>
       </c>
       <c r="AH70">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="71" spans="1:35">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" s="2">
         <v>45109</v>
@@ -8656,16 +8650,16 @@
         <v>161</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G71">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="H71">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I71">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -8680,10 +8674,10 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="O71">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -8748,7 +8742,7 @@
     </row>
     <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B72" s="2">
         <v>45109</v>
@@ -8757,105 +8751,105 @@
         <v>84</v>
       </c>
       <c r="D72">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
         <v>162</v>
       </c>
       <c r="F72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G72">
-        <v>2.23</v>
+        <v>2.98</v>
       </c>
       <c r="H72">
-        <v>2.91</v>
+        <v>2.63</v>
       </c>
       <c r="I72">
-        <v>3.67</v>
+        <v>2.53</v>
       </c>
       <c r="J72">
         <v>1.11</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>6.35</v>
       </c>
       <c r="L72">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="M72">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="N72">
-        <v>2.88</v>
+        <v>2.71</v>
       </c>
       <c r="O72">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P72">
         <v>1.62</v>
       </c>
       <c r="Q72">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R72">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S72">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T72">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="U72">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="V72">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="W72">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="X72">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="Y72">
-        <v>1.53</v>
+        <v>1.89</v>
       </c>
       <c r="Z72">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AA72">
-        <v>2.81</v>
+        <v>3.14</v>
       </c>
       <c r="AB72">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AD72">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="AE72">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF72">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG72">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH72">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI72">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:35">
       <c r="A73" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B73" s="2">
         <v>45109</v>
@@ -8864,105 +8858,105 @@
         <v>84</v>
       </c>
       <c r="D73">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
         <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G73">
-        <v>2.95</v>
+        <v>2.23</v>
       </c>
       <c r="H73">
-        <v>2.8</v>
+        <v>2.91</v>
       </c>
       <c r="I73">
-        <v>2.6</v>
+        <v>3.67</v>
       </c>
       <c r="J73">
         <v>1.11</v>
       </c>
       <c r="K73">
-        <v>6.35</v>
+        <v>7</v>
       </c>
       <c r="L73">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="M73">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="N73">
-        <v>2.59</v>
+        <v>2.88</v>
       </c>
       <c r="O73">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P73">
         <v>1.62</v>
       </c>
       <c r="Q73">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R73">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S73">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T73">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="U73">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="V73">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="W73">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="X73">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="Y73">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="Z73">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AA73">
-        <v>3.14</v>
+        <v>2.81</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>3.16</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI73">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B74" s="2">
         <v>45109</v>
@@ -8971,76 +8965,76 @@
         <v>84</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
         <v>164</v>
       </c>
       <c r="F74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G74">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="H74">
-        <v>4.8</v>
+        <v>2.82</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="K74">
-        <v>10.5</v>
+        <v>6.35</v>
       </c>
       <c r="L74">
-        <v>1.21</v>
+        <v>1.54</v>
       </c>
       <c r="M74">
-        <v>3.82</v>
+        <v>2.33</v>
       </c>
       <c r="N74">
-        <v>1.72</v>
+        <v>2.59</v>
       </c>
       <c r="O74">
-        <v>2.06</v>
+        <v>1.38</v>
       </c>
       <c r="P74">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="Q74">
-        <v>3.31</v>
+        <v>2.2</v>
       </c>
       <c r="R74">
-        <v>2.14</v>
+        <v>2.35</v>
       </c>
       <c r="S74">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="T74">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="U74">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="V74">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="W74">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="X74">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z74">
         <v>1.25</v>
       </c>
       <c r="AA74">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="AB74">
         <v>0</v>
@@ -9069,85 +9063,85 @@
     </row>
     <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B75" s="2">
         <v>45109</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D75">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
         <v>165</v>
       </c>
       <c r="F75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G75">
-        <v>1.93</v>
+        <v>2.77</v>
       </c>
       <c r="H75">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="I75">
-        <v>4.5</v>
+        <v>2.29</v>
       </c>
       <c r="J75">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="K75">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="L75">
+        <v>1.5</v>
+      </c>
+      <c r="M75">
+        <v>2.45</v>
+      </c>
+      <c r="N75">
+        <v>2.18</v>
+      </c>
+      <c r="O75">
         <v>1.54</v>
       </c>
-      <c r="M75">
-        <v>2.33</v>
-      </c>
-      <c r="N75">
-        <v>2.56</v>
-      </c>
-      <c r="O75">
-        <v>1.45</v>
-      </c>
       <c r="P75">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q75">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R75">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="T75">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="U75">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>2.4</v>
+        <v>2.11</v>
       </c>
       <c r="X75">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="Y75">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Z75">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="AA75">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AB75">
         <v>0</v>
@@ -9176,31 +9170,31 @@
     </row>
     <row r="76" spans="1:35">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B76" s="2">
         <v>45109</v>
       </c>
       <c r="C76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D76">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
         <v>166</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G76">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="H76">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I76">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -9215,22 +9209,22 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>2.43</v>
+        <v>1.98</v>
       </c>
       <c r="O76">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="P76">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <v>0</v>
@@ -9242,19 +9236,19 @@
         <v>0</v>
       </c>
       <c r="W76">
-        <v>2.11</v>
+        <v>1.63</v>
       </c>
       <c r="X76">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="Y76">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="Z76">
-        <v>1.66</v>
+        <v>1.41</v>
       </c>
       <c r="AA76">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AB76">
         <v>0</v>
@@ -9283,114 +9277,114 @@
     </row>
     <row r="77" spans="1:35">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B77" s="2">
         <v>45109</v>
       </c>
       <c r="C77" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
         <v>167</v>
       </c>
       <c r="F77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G77">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="H77">
-        <v>4.1</v>
+        <v>2.95</v>
       </c>
       <c r="I77">
+        <v>2.39</v>
+      </c>
+      <c r="J77">
+        <v>1.1</v>
+      </c>
+      <c r="K77">
         <v>7</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
       <c r="L77">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N77">
+        <v>2.5</v>
+      </c>
+      <c r="O77">
+        <v>1.5</v>
+      </c>
+      <c r="P77">
+        <v>1.57</v>
+      </c>
+      <c r="Q77">
+        <v>2.25</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>1.7</v>
+      </c>
+      <c r="T77">
+        <v>1.6</v>
+      </c>
+      <c r="U77">
+        <v>1.3</v>
+      </c>
+      <c r="V77">
+        <v>1.36</v>
+      </c>
+      <c r="W77">
+        <v>1.18</v>
+      </c>
+      <c r="X77">
+        <v>1.09</v>
+      </c>
+      <c r="Y77">
+        <v>1.51</v>
+      </c>
+      <c r="Z77">
+        <v>1.54</v>
+      </c>
+      <c r="AA77">
+        <v>3.05</v>
+      </c>
+      <c r="AB77">
+        <v>2.2</v>
+      </c>
+      <c r="AC77">
+        <v>7.5</v>
+      </c>
+      <c r="AD77">
         <v>1.91</v>
       </c>
-      <c r="O77">
-        <v>1.85</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>1.63</v>
-      </c>
-      <c r="X77">
-        <v>0.67</v>
-      </c>
-      <c r="Y77">
-        <v>1.59</v>
-      </c>
-      <c r="Z77">
-        <v>1.41</v>
-      </c>
-      <c r="AA77">
-        <v>3</v>
-      </c>
-      <c r="AB77">
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
       <c r="AE77">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF77">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AG77">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH77">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI77">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:35">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B78" s="2">
         <v>45109</v>
@@ -9405,7 +9399,7 @@
         <v>168</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G78">
         <v>2.05</v>
@@ -9497,192 +9491,192 @@
     </row>
     <row r="79" spans="1:35">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B79" s="2">
         <v>45109</v>
       </c>
       <c r="C79" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E79" t="s">
         <v>169</v>
       </c>
       <c r="F79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G79">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="H79">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I79">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="J79">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K79">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L79">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M79">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="N79">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="O79">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P79">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q79">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T79">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="U79">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="V79">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="W79">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="X79">
-        <v>1.09</v>
+        <v>2.29</v>
       </c>
       <c r="Y79">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="Z79">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AA79">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AB79">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD79">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AE79">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF79">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG79">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH79">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AI79">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:35">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B80" s="2">
         <v>45109</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D80">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
         <v>170</v>
       </c>
       <c r="F80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G80">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I80">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="J80">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K80">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="P80">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="R80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S80">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="T80">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="U80">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="W80">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="X80">
-        <v>2.29</v>
+        <v>1.29</v>
       </c>
       <c r="Y80">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="Z80">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="AA80">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="AB80">
         <v>0</v>
@@ -9711,322 +9705,215 @@
     </row>
     <row r="81" spans="1:35">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B81" s="2">
         <v>45109</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D81">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
         <v>171</v>
       </c>
       <c r="F81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G81">
-        <v>2.85</v>
+        <v>1.67</v>
       </c>
       <c r="H81">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I81">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="N81">
-        <v>2.01</v>
+        <v>2.6</v>
       </c>
       <c r="O81">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T81">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="U81">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="W81">
-        <v>1.29</v>
+        <v>1.64</v>
       </c>
       <c r="X81">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="Y81">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Z81">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AA81">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AC81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD81">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="AE81">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF81">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG81">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH81">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI81">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="82" spans="1:35">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B82" s="2">
         <v>45109</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D82">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>172</v>
       </c>
       <c r="F82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G82">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H82">
-        <v>3.3</v>
+        <v>3.93</v>
       </c>
       <c r="I82">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J82">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="K82">
-        <v>5.75</v>
+        <v>15</v>
       </c>
       <c r="L82">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M82">
-        <v>2.45</v>
+        <v>4.33</v>
       </c>
       <c r="N82">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O82">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="P82">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="Q82">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="R82">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="S82">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U82">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="V82">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="W82">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
         <v>1.18</v>
       </c>
-      <c r="Y82">
-        <v>1.62</v>
-      </c>
-      <c r="Z82">
-        <v>1.14</v>
-      </c>
-      <c r="AA82">
-        <v>2.76</v>
-      </c>
-      <c r="AB82">
-        <v>1.26</v>
-      </c>
-      <c r="AC82">
-        <v>10</v>
-      </c>
-      <c r="AD82">
-        <v>4.86</v>
-      </c>
-      <c r="AE82">
-        <v>1.25</v>
-      </c>
       <c r="AF82">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="AG82">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AH82">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AI82">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35">
-      <c r="A83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B83" s="2">
-        <v>45109</v>
-      </c>
-      <c r="C83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>173</v>
-      </c>
-      <c r="F83" t="s">
-        <v>255</v>
-      </c>
-      <c r="G83">
-        <v>1.6</v>
-      </c>
-      <c r="H83">
-        <v>3.93</v>
-      </c>
-      <c r="I83">
-        <v>4.7</v>
-      </c>
-      <c r="J83">
-        <v>1.02</v>
-      </c>
-      <c r="K83">
-        <v>15</v>
-      </c>
-      <c r="L83">
-        <v>1.2</v>
-      </c>
-      <c r="M83">
-        <v>4.33</v>
-      </c>
-      <c r="N83">
-        <v>1.6</v>
-      </c>
-      <c r="O83">
-        <v>2.2</v>
-      </c>
-      <c r="P83">
-        <v>1.3</v>
-      </c>
-      <c r="Q83">
-        <v>3.4</v>
-      </c>
-      <c r="R83">
-        <v>1.7</v>
-      </c>
-      <c r="S83">
-        <v>2.05</v>
-      </c>
-      <c r="T83">
-        <v>1.17</v>
-      </c>
-      <c r="U83">
-        <v>1.23</v>
-      </c>
-      <c r="V83">
-        <v>2.2</v>
-      </c>
-      <c r="W83">
-        <v>0</v>
-      </c>
-      <c r="X83">
-        <v>0</v>
-      </c>
-      <c r="Y83">
-        <v>0</v>
-      </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-      <c r="AB83">
-        <v>0</v>
-      </c>
-      <c r="AC83">
-        <v>0</v>
-      </c>
-      <c r="AD83">
-        <v>0</v>
-      </c>
-      <c r="AE83">
-        <v>1.18</v>
-      </c>
-      <c r="AF83">
-        <v>1.35</v>
-      </c>
-      <c r="AG83">
-        <v>1.63</v>
-      </c>
-      <c r="AH83">
-        <v>2.1</v>
-      </c>
-      <c r="AI83">
         <v>2.8</v>
       </c>
     </row>
